--- a/YRD/final_allvar/compare_YRD.xlsx
+++ b/YRD/final_allvar/compare_YRD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\data\YRD\final_allvar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE684D3B-039A-49B1-81E3-94A88DC6BFD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A28BC1F-F3AD-4EA5-9431-7B929B44BBD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5685" yWindow="4658" windowWidth="13245" windowHeight="7282" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,14 @@
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2417,62 +2423,7 @@
   </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
-              <a:t>各变量在不同污染程度下的贡献度</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -4708,62 +4659,7 @@
   </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
-              <a:t>各变量在不同污染程度下的贡献度</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -5195,7 +5091,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -5208,7 +5104,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -5237,7 +5133,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -5275,7 +5171,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5301,7 +5197,7 @@
         <c:axId val="104428032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
+          <c:max val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5446,7 +5342,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -9308,62 +9204,7 @@
   </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
-              <a:t>各变量在不同污染程度下的贡献度</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -9795,7 +9636,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -9808,7 +9649,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -9837,7 +9678,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -9874,8 +9715,8 @@
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:pPr algn="ctr">
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -9901,6 +9742,7 @@
         <c:axId val="104428032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -10045,7 +9887,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -13440,62 +13282,7 @@
   </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
-              <a:t>各变量在不同污染程度下的贡献度</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -13927,7 +13714,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -13940,7 +13727,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -13969,7 +13756,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -14006,8 +13793,8 @@
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:pPr algn="ctr">
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -14033,6 +13820,7 @@
         <c:axId val="104428032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -14177,7 +13965,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -14973,62 +14761,7 @@
   </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
-              <a:t>各变量在不同污染程度下的贡献度</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -19552,62 +19285,7 @@
   </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
-              <a:t>各变量在不同污染程度下的贡献度</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -37837,6 +37515,2139 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="BTH_detail"/>
+      <sheetName val="BTH_combine"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="365">
+          <cell r="B365" t="str">
+            <v>PM2.5_Sim</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="B366">
+            <v>10.7219298245614</v>
+          </cell>
+          <cell r="C366">
+            <v>9.9333333333333425</v>
+          </cell>
+          <cell r="D366">
+            <v>2.3916666666666675</v>
+          </cell>
+          <cell r="E366">
+            <v>5.4938596491228004</v>
+          </cell>
+          <cell r="F366">
+            <v>2.6793859649122815</v>
+          </cell>
+          <cell r="G366">
+            <v>9.8947368421052637</v>
+          </cell>
+          <cell r="H366">
+            <v>6.063596491228064</v>
+          </cell>
+          <cell r="I366">
+            <v>8.375438596491227</v>
+          </cell>
+          <cell r="J366">
+            <v>5.4460526315789446</v>
+          </cell>
+          <cell r="K366">
+            <v>2.7412280701754392</v>
+          </cell>
+          <cell r="L366">
+            <v>1.2171052631578936</v>
+          </cell>
+          <cell r="M366">
+            <v>1.228508771929824</v>
+          </cell>
+          <cell r="N366">
+            <v>1.3491228070175456</v>
+          </cell>
+          <cell r="O366">
+            <v>8.8359649122806996</v>
+          </cell>
+          <cell r="P366">
+            <v>9.114912280701752</v>
+          </cell>
+          <cell r="Q366">
+            <v>1.9758771929824557</v>
+          </cell>
+          <cell r="R366">
+            <v>2.7175438596491239</v>
+          </cell>
+          <cell r="S366">
+            <v>5.2249999999999996</v>
+          </cell>
+          <cell r="T366">
+            <v>4.578947368421054</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="B367">
+            <v>9.0409638554216887</v>
+          </cell>
+          <cell r="C367">
+            <v>9.7289156626506017</v>
+          </cell>
+          <cell r="D367">
+            <v>3.8819277108433741</v>
+          </cell>
+          <cell r="E367">
+            <v>6.0650602409638559</v>
+          </cell>
+          <cell r="F367">
+            <v>2.8433734939759039</v>
+          </cell>
+          <cell r="G367">
+            <v>9.0409638554216851</v>
+          </cell>
+          <cell r="H367">
+            <v>8.3445783132530131</v>
+          </cell>
+          <cell r="I367">
+            <v>9.2120481927710838</v>
+          </cell>
+          <cell r="J367">
+            <v>6.1253012048192765</v>
+          </cell>
+          <cell r="K367">
+            <v>2.8590361445783126</v>
+          </cell>
+          <cell r="L367">
+            <v>1.3855421686746989</v>
+          </cell>
+          <cell r="M367">
+            <v>1.8132530120481931</v>
+          </cell>
+          <cell r="N367">
+            <v>0.84216867469879564</v>
+          </cell>
+          <cell r="O367">
+            <v>5.2301204819277105</v>
+          </cell>
+          <cell r="P367">
+            <v>10.645783132530122</v>
+          </cell>
+          <cell r="Q367">
+            <v>1.7674698795180719</v>
+          </cell>
+          <cell r="R367">
+            <v>2.1927710843373496</v>
+          </cell>
+          <cell r="S367">
+            <v>3.9891566265060239</v>
+          </cell>
+          <cell r="T367">
+            <v>5.0036144578313246</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="B368">
+            <v>8.7571428571428562</v>
+          </cell>
+          <cell r="C368">
+            <v>7.1464285714285714</v>
+          </cell>
+          <cell r="D368">
+            <v>3.3928571428571423</v>
+          </cell>
+          <cell r="E368">
+            <v>5.3071428571428561</v>
+          </cell>
+          <cell r="F368">
+            <v>2.0357142857142856</v>
+          </cell>
+          <cell r="G368">
+            <v>12.614285714285712</v>
+          </cell>
+          <cell r="H368">
+            <v>9.0392857142857128</v>
+          </cell>
+          <cell r="I368">
+            <v>5.5392857142857137</v>
+          </cell>
+          <cell r="J368">
+            <v>5.2785714285714276</v>
+          </cell>
+          <cell r="K368">
+            <v>2</v>
+          </cell>
+          <cell r="L368">
+            <v>0.95000000000000018</v>
+          </cell>
+          <cell r="M368">
+            <v>1.1571428571428573</v>
+          </cell>
+          <cell r="N368">
+            <v>0.68214285714285705</v>
+          </cell>
+          <cell r="O368">
+            <v>6.3821428571428553</v>
+          </cell>
+          <cell r="P368">
+            <v>13.628571428571428</v>
+          </cell>
+          <cell r="Q368">
+            <v>2.8464285714285715</v>
+          </cell>
+          <cell r="R368">
+            <v>3.0321428571428561</v>
+          </cell>
+          <cell r="S368">
+            <v>6.5678571428571422</v>
+          </cell>
+          <cell r="T368">
+            <v>3.6750000000000007</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="B369">
+            <v>6.1565217391304357</v>
+          </cell>
+          <cell r="C369">
+            <v>12.508695652173913</v>
+          </cell>
+          <cell r="D369">
+            <v>4.3565217391304341</v>
+          </cell>
+          <cell r="E369">
+            <v>5.0565217391304342</v>
+          </cell>
+          <cell r="F369">
+            <v>2.2000000000000002</v>
+          </cell>
+          <cell r="G369">
+            <v>16.460869565217394</v>
+          </cell>
+          <cell r="H369">
+            <v>8.6565217391304348</v>
+          </cell>
+          <cell r="I369">
+            <v>5.947826086956522</v>
+          </cell>
+          <cell r="J369">
+            <v>5.1695652173913036</v>
+          </cell>
+          <cell r="K369">
+            <v>0.85217391304347845</v>
+          </cell>
+          <cell r="L369">
+            <v>0.99130434782608712</v>
+          </cell>
+          <cell r="M369">
+            <v>0.95652173913043481</v>
+          </cell>
+          <cell r="N369">
+            <v>0.31304347826086953</v>
+          </cell>
+          <cell r="O369">
+            <v>5.1521739130434785</v>
+          </cell>
+          <cell r="P369">
+            <v>13.995652173913046</v>
+          </cell>
+          <cell r="Q369">
+            <v>1.665217391304348</v>
+          </cell>
+          <cell r="R369">
+            <v>2.1173913043478261</v>
+          </cell>
+          <cell r="S369">
+            <v>4.3782608695652172</v>
+          </cell>
+          <cell r="T369">
+            <v>3.0695652173913039</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="B370">
+            <v>6.35</v>
+          </cell>
+          <cell r="C370">
+            <v>11.925000000000001</v>
+          </cell>
+          <cell r="D370">
+            <v>2.8249999999999997</v>
+          </cell>
+          <cell r="E370">
+            <v>3.4749999999999996</v>
+          </cell>
+          <cell r="F370">
+            <v>5.65</v>
+          </cell>
+          <cell r="G370">
+            <v>19.725000000000001</v>
+          </cell>
+          <cell r="H370">
+            <v>14.324999999999999</v>
+          </cell>
+          <cell r="I370">
+            <v>2.9</v>
+          </cell>
+          <cell r="J370">
+            <v>3.5249999999999999</v>
+          </cell>
+          <cell r="K370">
+            <v>0.19999999999999998</v>
+          </cell>
+          <cell r="L370">
+            <v>0.25</v>
+          </cell>
+          <cell r="M370">
+            <v>0.39999999999999997</v>
+          </cell>
+          <cell r="N370">
+            <v>0.27500000000000002</v>
+          </cell>
+          <cell r="O370">
+            <v>3.7749999999999995</v>
+          </cell>
+          <cell r="P370">
+            <v>12.775</v>
+          </cell>
+          <cell r="Q370">
+            <v>1.925</v>
+          </cell>
+          <cell r="R370">
+            <v>1.7499999999999998</v>
+          </cell>
+          <cell r="S370">
+            <v>6.125</v>
+          </cell>
+          <cell r="T370">
+            <v>1.8</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="B373">
+            <v>11.47111111111111</v>
+          </cell>
+          <cell r="C373">
+            <v>9.4600000000000026</v>
+          </cell>
+          <cell r="D373">
+            <v>2.9322222222222227</v>
+          </cell>
+          <cell r="E373">
+            <v>4.1599999999999984</v>
+          </cell>
+          <cell r="F373">
+            <v>2.52</v>
+          </cell>
+          <cell r="G373">
+            <v>7.8833333333333346</v>
+          </cell>
+          <cell r="H373">
+            <v>6.3811111111111085</v>
+          </cell>
+          <cell r="I373">
+            <v>6.9866666666666664</v>
+          </cell>
+          <cell r="J373">
+            <v>8.8777777777777782</v>
+          </cell>
+          <cell r="K373">
+            <v>2.7866666666666684</v>
+          </cell>
+          <cell r="L373">
+            <v>1.3511111111111112</v>
+          </cell>
+          <cell r="M373">
+            <v>2.3377777777777777</v>
+          </cell>
+          <cell r="N373">
+            <v>1.3299999999999998</v>
+          </cell>
+          <cell r="O373">
+            <v>7.4822222222222221</v>
+          </cell>
+          <cell r="P373">
+            <v>6.2688888888888883</v>
+          </cell>
+          <cell r="Q373">
+            <v>2.4844444444444429</v>
+          </cell>
+          <cell r="R373">
+            <v>3.1511111111111112</v>
+          </cell>
+          <cell r="S373">
+            <v>5.72</v>
+          </cell>
+          <cell r="T373">
+            <v>6.4177777777777782</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="B374">
+            <v>10.598888888888892</v>
+          </cell>
+          <cell r="C374">
+            <v>8.0177777777777735</v>
+          </cell>
+          <cell r="D374">
+            <v>2.0666666666666664</v>
+          </cell>
+          <cell r="E374">
+            <v>6.4455555555555542</v>
+          </cell>
+          <cell r="F374">
+            <v>3.9433333333333338</v>
+          </cell>
+          <cell r="G374">
+            <v>14.52</v>
+          </cell>
+          <cell r="H374">
+            <v>8.4266666666666676</v>
+          </cell>
+          <cell r="I374">
+            <v>12.675555555555549</v>
+          </cell>
+          <cell r="J374">
+            <v>1.2400000000000009</v>
+          </cell>
+          <cell r="K374">
+            <v>2.1744444444444446</v>
+          </cell>
+          <cell r="L374">
+            <v>0.72000000000000008</v>
+          </cell>
+          <cell r="M374">
+            <v>0.58444444444444443</v>
+          </cell>
+          <cell r="N374">
+            <v>1.840000000000001</v>
+          </cell>
+          <cell r="O374">
+            <v>7.2466666666666661</v>
+          </cell>
+          <cell r="P374">
+            <v>11.724444444444437</v>
+          </cell>
+          <cell r="Q374">
+            <v>0.96222222222222187</v>
+          </cell>
+          <cell r="R374">
+            <v>1.2877777777777772</v>
+          </cell>
+          <cell r="S374">
+            <v>2.8433333333333328</v>
+          </cell>
+          <cell r="T374">
+            <v>2.6633333333333336</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="B375">
+            <v>10.974444444444444</v>
+          </cell>
+          <cell r="C375">
+            <v>10.509999999999996</v>
+          </cell>
+          <cell r="D375">
+            <v>3.0622222222222213</v>
+          </cell>
+          <cell r="E375">
+            <v>5.642222222222224</v>
+          </cell>
+          <cell r="F375">
+            <v>2.6788888888888889</v>
+          </cell>
+          <cell r="G375">
+            <v>9.2100000000000009</v>
+          </cell>
+          <cell r="H375">
+            <v>4.4122222222222227</v>
+          </cell>
+          <cell r="I375">
+            <v>5.6633333333333322</v>
+          </cell>
+          <cell r="J375">
+            <v>7.1522222222222229</v>
+          </cell>
+          <cell r="K375">
+            <v>3.0677777777777773</v>
+          </cell>
+          <cell r="L375">
+            <v>1.4099999999999997</v>
+          </cell>
+          <cell r="M375">
+            <v>1.2299999999999998</v>
+          </cell>
+          <cell r="N375">
+            <v>0.83444444444444454</v>
+          </cell>
+          <cell r="O375">
+            <v>8.8755555555555556</v>
+          </cell>
+          <cell r="P375">
+            <v>9.7166666666666686</v>
+          </cell>
+          <cell r="Q375">
+            <v>2.0311111111111102</v>
+          </cell>
+          <cell r="R375">
+            <v>3.3022222222222219</v>
+          </cell>
+          <cell r="S375">
+            <v>6.0933333333333346</v>
+          </cell>
+          <cell r="T375">
+            <v>4.1322222222222216</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="B376">
+            <v>5.6247311827956983</v>
+          </cell>
+          <cell r="C376">
+            <v>11.060215053763443</v>
+          </cell>
+          <cell r="D376">
+            <v>3.2193548387096764</v>
+          </cell>
+          <cell r="E376">
+            <v>5.7473118279569917</v>
+          </cell>
+          <cell r="F376">
+            <v>1.5193548387096776</v>
+          </cell>
+          <cell r="G376">
+            <v>9.435483870967742</v>
+          </cell>
+          <cell r="H376">
+            <v>9.2946236559139805</v>
+          </cell>
+          <cell r="I376">
+            <v>7.544086021505378</v>
+          </cell>
+          <cell r="J376">
+            <v>5.3763440860215077</v>
+          </cell>
+          <cell r="K376">
+            <v>2.3752688172043017</v>
+          </cell>
+          <cell r="L376">
+            <v>1.2892473118279568</v>
+          </cell>
+          <cell r="M376">
+            <v>1.3225806451612907</v>
+          </cell>
+          <cell r="N376">
+            <v>0.43440860215053784</v>
+          </cell>
+          <cell r="O376">
+            <v>7.5365591397849512</v>
+          </cell>
+          <cell r="P376">
+            <v>11.861290322580643</v>
+          </cell>
+          <cell r="Q376">
+            <v>2.4602150537634402</v>
+          </cell>
+          <cell r="R376">
+            <v>2.5591397849462365</v>
+          </cell>
+          <cell r="S376">
+            <v>6.5591397849462343</v>
+          </cell>
+          <cell r="T376">
+            <v>4.7774193548387078</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="365">
+          <cell r="B365" t="str">
+            <v>PM2.5_Bias_ystd</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="B366">
+            <v>9.9333333333333425</v>
+          </cell>
+          <cell r="C366">
+            <v>34.572807017543845</v>
+          </cell>
+          <cell r="D366">
+            <v>4.4249999999999998</v>
+          </cell>
+          <cell r="E366">
+            <v>4.0692982456140356</v>
+          </cell>
+          <cell r="F366">
+            <v>47.003070175438545</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="B367">
+            <v>8.9137499999999967</v>
+          </cell>
+          <cell r="C367">
+            <v>34.086250000000007</v>
+          </cell>
+          <cell r="D367">
+            <v>5.1937500000000005</v>
+          </cell>
+          <cell r="E367">
+            <v>3.0624999999999987</v>
+          </cell>
+          <cell r="F367">
+            <v>48.731249999999982</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="B368">
+            <v>7.1464285714285714</v>
+          </cell>
+          <cell r="C368">
+            <v>39.128571428571426</v>
+          </cell>
+          <cell r="D368">
+            <v>4.9321428571428578</v>
+          </cell>
+          <cell r="E368">
+            <v>3.7107142857142863</v>
+          </cell>
+          <cell r="F368">
+            <v>45.096428571428575</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="B369">
+            <v>12.508695652173913</v>
+          </cell>
+          <cell r="C369">
+            <v>40.682608695652171</v>
+          </cell>
+          <cell r="D369">
+            <v>3.6217391304347819</v>
+          </cell>
+          <cell r="E369">
+            <v>2.4347826086956519</v>
+          </cell>
+          <cell r="F369">
+            <v>40.726086956521733</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="B370">
+            <v>18.649999999999999</v>
+          </cell>
+          <cell r="C370">
+            <v>47.775000000000006</v>
+          </cell>
+          <cell r="D370">
+            <v>1.85</v>
+          </cell>
+          <cell r="E370">
+            <v>1.4000000000000001</v>
+          </cell>
+          <cell r="F370">
+            <v>30.274999999999999</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="B373">
+            <v>9.4600000000000026</v>
+          </cell>
+          <cell r="C373">
+            <v>32.841111111111111</v>
+          </cell>
+          <cell r="D373">
+            <v>6.1744444444444424</v>
+          </cell>
+          <cell r="E373">
+            <v>4.4877777777777785</v>
+          </cell>
+          <cell r="F373">
+            <v>47.038888888888899</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="B374">
+            <v>8.0177777777777735</v>
+          </cell>
+          <cell r="C374">
+            <v>42.064444444444433</v>
+          </cell>
+          <cell r="D374">
+            <v>2.2688888888888892</v>
+          </cell>
+          <cell r="E374">
+            <v>3.1277777777777782</v>
+          </cell>
+          <cell r="F374">
+            <v>44.518888888888881</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="B375">
+            <v>10.429999999999998</v>
+          </cell>
+          <cell r="C375">
+            <v>33.24</v>
+          </cell>
+          <cell r="D375">
+            <v>4.6811111111111119</v>
+          </cell>
+          <cell r="E375">
+            <v>4.1622222222222227</v>
+          </cell>
+          <cell r="F375">
+            <v>47.491111111111117</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="B376">
+            <v>11.060215053763443</v>
+          </cell>
+          <cell r="C376">
+            <v>33.320430107526882</v>
+          </cell>
+          <cell r="D376">
+            <v>5.075268817204301</v>
+          </cell>
+          <cell r="E376">
+            <v>2.9924731182795692</v>
+          </cell>
+          <cell r="F376">
+            <v>47.540860215053783</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="BTH_detail"/>
+      <sheetName val="BTH_combine"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="365">
+          <cell r="B365" t="str">
+            <v>PM2.5_Sim</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="B366">
+            <v>6.2614035087719291</v>
+          </cell>
+          <cell r="C366">
+            <v>12.341228070175426</v>
+          </cell>
+          <cell r="D366">
+            <v>3.8771929824561417</v>
+          </cell>
+          <cell r="E366">
+            <v>8.9881578947368403</v>
+          </cell>
+          <cell r="F366">
+            <v>3.5587719298245575</v>
+          </cell>
+          <cell r="G366">
+            <v>7.4714912280701702</v>
+          </cell>
+          <cell r="H366">
+            <v>9.0846491228070221</v>
+          </cell>
+          <cell r="I366">
+            <v>5.702192982456137</v>
+          </cell>
+          <cell r="J366">
+            <v>4.9074561403508747</v>
+          </cell>
+          <cell r="K366">
+            <v>4.7412280701754419</v>
+          </cell>
+          <cell r="L366">
+            <v>2.1407894736842099</v>
+          </cell>
+          <cell r="M366">
+            <v>3.770175438596497</v>
+          </cell>
+          <cell r="N366">
+            <v>2.7171052631578902</v>
+          </cell>
+          <cell r="O366">
+            <v>6.9653508771929857</v>
+          </cell>
+          <cell r="P366">
+            <v>4.9377192982456162</v>
+          </cell>
+          <cell r="Q366">
+            <v>3.0236842105263158</v>
+          </cell>
+          <cell r="R366">
+            <v>2.4960526315789489</v>
+          </cell>
+          <cell r="S366">
+            <v>4.1135964912280691</v>
+          </cell>
+          <cell r="T366">
+            <v>2.9258771929824552</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="B367">
+            <v>5.0397590361445781</v>
+          </cell>
+          <cell r="C367">
+            <v>15.887951807228919</v>
+          </cell>
+          <cell r="D367">
+            <v>4.879518072289156</v>
+          </cell>
+          <cell r="E367">
+            <v>6.5879518072289152</v>
+          </cell>
+          <cell r="F367">
+            <v>3.8000000000000025</v>
+          </cell>
+          <cell r="G367">
+            <v>8.1240963855421686</v>
+          </cell>
+          <cell r="H367">
+            <v>7.67710843373494</v>
+          </cell>
+          <cell r="I367">
+            <v>4.8084337349397552</v>
+          </cell>
+          <cell r="J367">
+            <v>4.2409638554216862</v>
+          </cell>
+          <cell r="K367">
+            <v>3.0120481927710832</v>
+          </cell>
+          <cell r="L367">
+            <v>2.2951807228915664</v>
+          </cell>
+          <cell r="M367">
+            <v>4.2698795180722868</v>
+          </cell>
+          <cell r="N367">
+            <v>2.8132530120481922</v>
+          </cell>
+          <cell r="O367">
+            <v>3.8963855421686739</v>
+          </cell>
+          <cell r="P367">
+            <v>6.2289156626506035</v>
+          </cell>
+          <cell r="Q367">
+            <v>4.1469879518072306</v>
+          </cell>
+          <cell r="R367">
+            <v>4.3602409638554231</v>
+          </cell>
+          <cell r="S367">
+            <v>4.5036144578313264</v>
+          </cell>
+          <cell r="T367">
+            <v>3.4289156626506028</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="B368">
+            <v>7.0678571428571422</v>
+          </cell>
+          <cell r="C368">
+            <v>16.392857142857142</v>
+          </cell>
+          <cell r="D368">
+            <v>5.617857142857142</v>
+          </cell>
+          <cell r="E368">
+            <v>4.0428571428571427</v>
+          </cell>
+          <cell r="F368">
+            <v>3.9178571428571423</v>
+          </cell>
+          <cell r="G368">
+            <v>8.5142857142857142</v>
+          </cell>
+          <cell r="H368">
+            <v>5.35</v>
+          </cell>
+          <cell r="I368">
+            <v>4.8321428571428564</v>
+          </cell>
+          <cell r="J368">
+            <v>3.907142857142857</v>
+          </cell>
+          <cell r="K368">
+            <v>3.0678571428571431</v>
+          </cell>
+          <cell r="L368">
+            <v>1.5500000000000005</v>
+          </cell>
+          <cell r="M368">
+            <v>3.3071428571428574</v>
+          </cell>
+          <cell r="N368">
+            <v>2.4321428571428569</v>
+          </cell>
+          <cell r="O368">
+            <v>4.9321428571428569</v>
+          </cell>
+          <cell r="P368">
+            <v>5.9142857142857155</v>
+          </cell>
+          <cell r="Q368">
+            <v>2.9642857142857144</v>
+          </cell>
+          <cell r="R368">
+            <v>5.8392857142857153</v>
+          </cell>
+          <cell r="S368">
+            <v>6.2892857142857155</v>
+          </cell>
+          <cell r="T368">
+            <v>4.0535714285714288</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="B369">
+            <v>6.1217391304347819</v>
+          </cell>
+          <cell r="C369">
+            <v>15.317391304347826</v>
+          </cell>
+          <cell r="D369">
+            <v>6.9086956521739129</v>
+          </cell>
+          <cell r="E369">
+            <v>2.195652173913043</v>
+          </cell>
+          <cell r="F369">
+            <v>4.3391304347826081</v>
+          </cell>
+          <cell r="G369">
+            <v>11.121739130434781</v>
+          </cell>
+          <cell r="H369">
+            <v>4.8434782608695661</v>
+          </cell>
+          <cell r="I369">
+            <v>3.9869565217391298</v>
+          </cell>
+          <cell r="J369">
+            <v>4.3652173913043475</v>
+          </cell>
+          <cell r="K369">
+            <v>2.1565217391304352</v>
+          </cell>
+          <cell r="L369">
+            <v>1.4217391304347828</v>
+          </cell>
+          <cell r="M369">
+            <v>4.1695652173913054</v>
+          </cell>
+          <cell r="N369">
+            <v>2.0130434782608693</v>
+          </cell>
+          <cell r="O369">
+            <v>5.4391304347826095</v>
+          </cell>
+          <cell r="P369">
+            <v>6.5695652173913039</v>
+          </cell>
+          <cell r="Q369">
+            <v>3.1217391304347832</v>
+          </cell>
+          <cell r="R369">
+            <v>6.8434782608695652</v>
+          </cell>
+          <cell r="S369">
+            <v>4.8086956521739124</v>
+          </cell>
+          <cell r="T369">
+            <v>4.2391304347826084</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="B370">
+            <v>7.2750000000000004</v>
+          </cell>
+          <cell r="C370">
+            <v>18.2</v>
+          </cell>
+          <cell r="D370">
+            <v>8.5</v>
+          </cell>
+          <cell r="E370">
+            <v>2.2749999999999999</v>
+          </cell>
+          <cell r="F370">
+            <v>5.8</v>
+          </cell>
+          <cell r="G370">
+            <v>9.35</v>
+          </cell>
+          <cell r="H370">
+            <v>3.1500000000000004</v>
+          </cell>
+          <cell r="I370">
+            <v>2.8000000000000003</v>
+          </cell>
+          <cell r="J370">
+            <v>4.0750000000000002</v>
+          </cell>
+          <cell r="K370">
+            <v>1.2999999999999998</v>
+          </cell>
+          <cell r="L370">
+            <v>0.45</v>
+          </cell>
+          <cell r="M370">
+            <v>3</v>
+          </cell>
+          <cell r="N370">
+            <v>2.8250000000000002</v>
+          </cell>
+          <cell r="O370">
+            <v>6.8000000000000007</v>
+          </cell>
+          <cell r="P370">
+            <v>5.85</v>
+          </cell>
+          <cell r="Q370">
+            <v>4.1000000000000005</v>
+          </cell>
+          <cell r="R370">
+            <v>5.9250000000000007</v>
+          </cell>
+          <cell r="S370">
+            <v>5.05</v>
+          </cell>
+          <cell r="T370">
+            <v>3.2750000000000004</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="B373">
+            <v>6.08777777777778</v>
+          </cell>
+          <cell r="C373">
+            <v>16.386666666666674</v>
+          </cell>
+          <cell r="D373">
+            <v>3.7522222222222221</v>
+          </cell>
+          <cell r="E373">
+            <v>8.9999999999999982</v>
+          </cell>
+          <cell r="F373">
+            <v>4.3211111111111089</v>
+          </cell>
+          <cell r="G373">
+            <v>6.732222222222223</v>
+          </cell>
+          <cell r="H373">
+            <v>10.713333333333336</v>
+          </cell>
+          <cell r="I373">
+            <v>4.8066666666666666</v>
+          </cell>
+          <cell r="J373">
+            <v>5.1211111111111105</v>
+          </cell>
+          <cell r="K373">
+            <v>3.3444444444444446</v>
+          </cell>
+          <cell r="L373">
+            <v>2.4099999999999993</v>
+          </cell>
+          <cell r="M373">
+            <v>3.4022222222222229</v>
+          </cell>
+          <cell r="N373">
+            <v>2.9555555555555535</v>
+          </cell>
+          <cell r="O373">
+            <v>6.08</v>
+          </cell>
+          <cell r="P373">
+            <v>3.293333333333333</v>
+          </cell>
+          <cell r="Q373">
+            <v>2.7888888888888883</v>
+          </cell>
+          <cell r="R373">
+            <v>3.2311111111111113</v>
+          </cell>
+          <cell r="S373">
+            <v>3.4188888888888886</v>
+          </cell>
+          <cell r="T373">
+            <v>2.1644444444444439</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="B374">
+            <v>4.8266666666666662</v>
+          </cell>
+          <cell r="C374">
+            <v>14.371111111111109</v>
+          </cell>
+          <cell r="D374">
+            <v>4.3900000000000015</v>
+          </cell>
+          <cell r="E374">
+            <v>9.7144444444444407</v>
+          </cell>
+          <cell r="F374">
+            <v>3.5066666666666682</v>
+          </cell>
+          <cell r="G374">
+            <v>7.3977777777777725</v>
+          </cell>
+          <cell r="H374">
+            <v>9.1488888888888837</v>
+          </cell>
+          <cell r="I374">
+            <v>6.6666666666666643</v>
+          </cell>
+          <cell r="J374">
+            <v>3.656666666666665</v>
+          </cell>
+          <cell r="K374">
+            <v>4.8544444444444412</v>
+          </cell>
+          <cell r="L374">
+            <v>1.8388888888888888</v>
+          </cell>
+          <cell r="M374">
+            <v>3.5111111111111124</v>
+          </cell>
+          <cell r="N374">
+            <v>2.1011111111111127</v>
+          </cell>
+          <cell r="O374">
+            <v>4.7955555555555547</v>
+          </cell>
+          <cell r="P374">
+            <v>7.0344444444444481</v>
+          </cell>
+          <cell r="Q374">
+            <v>3.4977777777777797</v>
+          </cell>
+          <cell r="R374">
+            <v>1.8422222222222224</v>
+          </cell>
+          <cell r="S374">
+            <v>3.7233333333333332</v>
+          </cell>
+          <cell r="T374">
+            <v>3.1533333333333329</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="B375">
+            <v>7.376666666666666</v>
+          </cell>
+          <cell r="C375">
+            <v>12.616666666666667</v>
+          </cell>
+          <cell r="D375">
+            <v>4.4733333333333336</v>
+          </cell>
+          <cell r="E375">
+            <v>6.971111111111111</v>
+          </cell>
+          <cell r="F375">
+            <v>2.6477777777777769</v>
+          </cell>
+          <cell r="G375">
+            <v>8.2355555555555569</v>
+          </cell>
+          <cell r="H375">
+            <v>7.1211111111111096</v>
+          </cell>
+          <cell r="I375">
+            <v>5.068888888888889</v>
+          </cell>
+          <cell r="J375">
+            <v>5.3344444444444425</v>
+          </cell>
+          <cell r="K375">
+            <v>4.9966666666666661</v>
+          </cell>
+          <cell r="L375">
+            <v>2.3522222222222209</v>
+          </cell>
+          <cell r="M375">
+            <v>4.2655555555555527</v>
+          </cell>
+          <cell r="N375">
+            <v>2.9077777777777785</v>
+          </cell>
+          <cell r="O375">
+            <v>7.8611111111111098</v>
+          </cell>
+          <cell r="P375">
+            <v>4.3722222222222245</v>
+          </cell>
+          <cell r="Q375">
+            <v>3.3811111111111125</v>
+          </cell>
+          <cell r="R375">
+            <v>2.8033333333333323</v>
+          </cell>
+          <cell r="S375">
+            <v>4.7099999999999991</v>
+          </cell>
+          <cell r="T375">
+            <v>2.5222222222222217</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="B376">
+            <v>5.6258064516129034</v>
+          </cell>
+          <cell r="C376">
+            <v>11.820430107526889</v>
+          </cell>
+          <cell r="D376">
+            <v>4.7935483870967763</v>
+          </cell>
+          <cell r="E376">
+            <v>4.8720430107526909</v>
+          </cell>
+          <cell r="F376">
+            <v>4.241935483870968</v>
+          </cell>
+          <cell r="G376">
+            <v>9.2989247311827956</v>
+          </cell>
+          <cell r="H376">
+            <v>5.7096774193548372</v>
+          </cell>
+          <cell r="I376">
+            <v>5.1870967741935496</v>
+          </cell>
+          <cell r="J376">
+            <v>4.1064516129032258</v>
+          </cell>
+          <cell r="K376">
+            <v>3.1268817204301085</v>
+          </cell>
+          <cell r="L376">
+            <v>1.7462365591397842</v>
+          </cell>
+          <cell r="M376">
+            <v>4.1290322580645142</v>
+          </cell>
+          <cell r="N376">
+            <v>2.927956989247313</v>
+          </cell>
+          <cell r="O376">
+            <v>5.3032258064516125</v>
+          </cell>
+          <cell r="P376">
+            <v>6.8118279569892461</v>
+          </cell>
+          <cell r="Q376">
+            <v>3.4139784946236547</v>
+          </cell>
+          <cell r="R376">
+            <v>5.8182795698924732</v>
+          </cell>
+          <cell r="S376">
+            <v>5.9376344086021513</v>
+          </cell>
+          <cell r="T376">
+            <v>5.1311827956989262</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="365">
+          <cell r="B365" t="str">
+            <v>PM2.5_Bias_ystd</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="B366">
+            <v>12.341228070175426</v>
+          </cell>
+          <cell r="C366">
+            <v>35.672807017543846</v>
+          </cell>
+          <cell r="D366">
+            <v>8.9328947368421048</v>
+          </cell>
+          <cell r="E366">
+            <v>5.210964912280696</v>
+          </cell>
+          <cell r="F366">
+            <v>37.854385964912304</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="B367">
+            <v>16.463750000000005</v>
+          </cell>
+          <cell r="C367">
+            <v>31.566250000000004</v>
+          </cell>
+          <cell r="D367">
+            <v>10.389999999999999</v>
+          </cell>
+          <cell r="E367">
+            <v>7.3125000000000018</v>
+          </cell>
+          <cell r="F367">
+            <v>34.258749999999992</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="B368">
+            <v>16.392857142857142</v>
+          </cell>
+          <cell r="C368">
+            <v>30.589285714285712</v>
+          </cell>
+          <cell r="D368">
+            <v>7.8285714285714292</v>
+          </cell>
+          <cell r="E368">
+            <v>8.2928571428571427</v>
+          </cell>
+          <cell r="F368">
+            <v>36.925000000000004</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="B369">
+            <v>15.317391304347826</v>
+          </cell>
+          <cell r="C369">
+            <v>31.182608695652171</v>
+          </cell>
+          <cell r="D369">
+            <v>8.6913043478260867</v>
+          </cell>
+          <cell r="E369">
+            <v>8.8608695652173903</v>
+          </cell>
+          <cell r="F369">
+            <v>35.952173913043474</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="B370">
+            <v>15.35</v>
+          </cell>
+          <cell r="C370">
+            <v>30.475000000000001</v>
+          </cell>
+          <cell r="D370">
+            <v>9.8249999999999993</v>
+          </cell>
+          <cell r="E370">
+            <v>9.25</v>
+          </cell>
+          <cell r="F370">
+            <v>35.075000000000003</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="B373">
+            <v>16.386666666666674</v>
+          </cell>
+          <cell r="C373">
+            <v>36.277777777777793</v>
+          </cell>
+          <cell r="D373">
+            <v>8.6033333333333299</v>
+          </cell>
+          <cell r="E373">
+            <v>6.1833333333333336</v>
+          </cell>
+          <cell r="F373">
+            <v>32.551111111111119</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="B374">
+            <v>14.371111111111109</v>
+          </cell>
+          <cell r="C374">
+            <v>35.4577777777778</v>
+          </cell>
+          <cell r="D374">
+            <v>8.8333333333333375</v>
+          </cell>
+          <cell r="E374">
+            <v>3.9422222222222212</v>
+          </cell>
+          <cell r="F374">
+            <v>37.407777777777781</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="B375">
+            <v>12.623333333333335</v>
+          </cell>
+          <cell r="C375">
+            <v>34.236666666666672</v>
+          </cell>
+          <cell r="D375">
+            <v>9.9266666666666659</v>
+          </cell>
+          <cell r="E375">
+            <v>5.7866666666666688</v>
+          </cell>
+          <cell r="F375">
+            <v>37.441111111111105</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="B376">
+            <v>11.820430107526889</v>
+          </cell>
+          <cell r="C376">
+            <v>30.288172043010761</v>
+          </cell>
+          <cell r="D376">
+            <v>9.2860215053763415</v>
+          </cell>
+          <cell r="E376">
+            <v>8.7526881720430136</v>
+          </cell>
+          <cell r="F376">
+            <v>39.855913978494605</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="BTH_detail"/>
+      <sheetName val="BTH_combine"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="365">
+          <cell r="B365" t="str">
+            <v>PM2.5_Sim</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="B366">
+            <v>7.0267543859649075</v>
+          </cell>
+          <cell r="C366">
+            <v>10.150438596491227</v>
+          </cell>
+          <cell r="D366">
+            <v>3.4934210526315805</v>
+          </cell>
+          <cell r="E366">
+            <v>5.0622807017543856</v>
+          </cell>
+          <cell r="F366">
+            <v>3.3741228070175451</v>
+          </cell>
+          <cell r="G366">
+            <v>9.537719298245614</v>
+          </cell>
+          <cell r="H366">
+            <v>7.1504385964912256</v>
+          </cell>
+          <cell r="I366">
+            <v>8.0570175438596436</v>
+          </cell>
+          <cell r="J366">
+            <v>4.1793859649122824</v>
+          </cell>
+          <cell r="K366">
+            <v>3.3447368421052595</v>
+          </cell>
+          <cell r="L366">
+            <v>1.5780701754385964</v>
+          </cell>
+          <cell r="M366">
+            <v>1.617105263157895</v>
+          </cell>
+          <cell r="N366">
+            <v>1.2302631578947358</v>
+          </cell>
+          <cell r="O366">
+            <v>8.6912280701754359</v>
+          </cell>
+          <cell r="P366">
+            <v>9.5197368421052673</v>
+          </cell>
+          <cell r="Q366">
+            <v>3.0293859649122834</v>
+          </cell>
+          <cell r="R366">
+            <v>1.958333333333333</v>
+          </cell>
+          <cell r="S366">
+            <v>5.3776315789473648</v>
+          </cell>
+          <cell r="T366">
+            <v>5.6188596491228067</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="B367">
+            <v>7.2072289156626512</v>
+          </cell>
+          <cell r="C367">
+            <v>12.102409638554217</v>
+          </cell>
+          <cell r="D367">
+            <v>4.8216867469879521</v>
+          </cell>
+          <cell r="E367">
+            <v>4.693975903614457</v>
+          </cell>
+          <cell r="F367">
+            <v>4.0771084337349404</v>
+          </cell>
+          <cell r="G367">
+            <v>9.0650602409638559</v>
+          </cell>
+          <cell r="H367">
+            <v>7.0192771084337391</v>
+          </cell>
+          <cell r="I367">
+            <v>9.2132530120481917</v>
+          </cell>
+          <cell r="J367">
+            <v>3.4698795180722879</v>
+          </cell>
+          <cell r="K367">
+            <v>2.5156626506024096</v>
+          </cell>
+          <cell r="L367">
+            <v>1.9506024096385544</v>
+          </cell>
+          <cell r="M367">
+            <v>1.9433734939759044</v>
+          </cell>
+          <cell r="N367">
+            <v>1.0710843373493977</v>
+          </cell>
+          <cell r="O367">
+            <v>4.8253012048192794</v>
+          </cell>
+          <cell r="P367">
+            <v>9.2602409638554253</v>
+          </cell>
+          <cell r="Q367">
+            <v>3.5554216867469868</v>
+          </cell>
+          <cell r="R367">
+            <v>2.348192771084336</v>
+          </cell>
+          <cell r="S367">
+            <v>5.1277108433734959</v>
+          </cell>
+          <cell r="T367">
+            <v>5.7289156626506035</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="B368">
+            <v>15.082142857142856</v>
+          </cell>
+          <cell r="C368">
+            <v>6.7928571428571436</v>
+          </cell>
+          <cell r="D368">
+            <v>4.5249999999999995</v>
+          </cell>
+          <cell r="E368">
+            <v>3.9642857142857149</v>
+          </cell>
+          <cell r="F368">
+            <v>3.2107142857142859</v>
+          </cell>
+          <cell r="G368">
+            <v>12.085714285714287</v>
+          </cell>
+          <cell r="H368">
+            <v>7.3714285714285692</v>
+          </cell>
+          <cell r="I368">
+            <v>4.6464285714285714</v>
+          </cell>
+          <cell r="J368">
+            <v>3.2678571428571428</v>
+          </cell>
+          <cell r="K368">
+            <v>1.6357142857142859</v>
+          </cell>
+          <cell r="L368">
+            <v>0.89642857142857146</v>
+          </cell>
+          <cell r="M368">
+            <v>0.68214285714285705</v>
+          </cell>
+          <cell r="N368">
+            <v>0.43214285714285705</v>
+          </cell>
+          <cell r="O368">
+            <v>5.6821428571428569</v>
+          </cell>
+          <cell r="P368">
+            <v>8.5107142857142843</v>
+          </cell>
+          <cell r="Q368">
+            <v>2.1499999999999995</v>
+          </cell>
+          <cell r="R368">
+            <v>2.6642857142857146</v>
+          </cell>
+          <cell r="S368">
+            <v>9.9857142857142858</v>
+          </cell>
+          <cell r="T368">
+            <v>6.4321428571428569</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="B369">
+            <v>11.630434782608695</v>
+          </cell>
+          <cell r="C369">
+            <v>14.952173913043479</v>
+          </cell>
+          <cell r="D369">
+            <v>6.552173913043478</v>
+          </cell>
+          <cell r="E369">
+            <v>1.2260869565217394</v>
+          </cell>
+          <cell r="F369">
+            <v>1.5782608695652176</v>
+          </cell>
+          <cell r="G369">
+            <v>17.5</v>
+          </cell>
+          <cell r="H369">
+            <v>7.8086956521739115</v>
+          </cell>
+          <cell r="I369">
+            <v>4.3304347826086955</v>
+          </cell>
+          <cell r="J369">
+            <v>3.4130434782608696</v>
+          </cell>
+          <cell r="K369">
+            <v>0.62173913043478246</v>
+          </cell>
+          <cell r="L369">
+            <v>0.62608695652173918</v>
+          </cell>
+          <cell r="M369">
+            <v>0.97391304347826091</v>
+          </cell>
+          <cell r="N369">
+            <v>0.14347826086956525</v>
+          </cell>
+          <cell r="O369">
+            <v>5.0391304347826091</v>
+          </cell>
+          <cell r="P369">
+            <v>8.5608695652173914</v>
+          </cell>
+          <cell r="Q369">
+            <v>1.5434782608695652</v>
+          </cell>
+          <cell r="R369">
+            <v>2.1782608695652175</v>
+          </cell>
+          <cell r="S369">
+            <v>6.2608695652173916</v>
+          </cell>
+          <cell r="T369">
+            <v>5.052173913043478</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="B370">
+            <v>2.4499999999999997</v>
+          </cell>
+          <cell r="C370">
+            <v>20.225000000000001</v>
+          </cell>
+          <cell r="D370">
+            <v>13.274999999999999</v>
+          </cell>
+          <cell r="E370">
+            <v>0.75</v>
+          </cell>
+          <cell r="F370">
+            <v>1.675</v>
+          </cell>
+          <cell r="G370">
+            <v>24.625</v>
+          </cell>
+          <cell r="H370">
+            <v>6.7750000000000004</v>
+          </cell>
+          <cell r="I370">
+            <v>2.7249999999999996</v>
+          </cell>
+          <cell r="J370">
+            <v>1.875</v>
+          </cell>
+          <cell r="K370">
+            <v>0.1</v>
+          </cell>
+          <cell r="L370">
+            <v>0.15</v>
+          </cell>
+          <cell r="M370">
+            <v>0.2</v>
+          </cell>
+          <cell r="N370">
+            <v>0.125</v>
+          </cell>
+          <cell r="O370">
+            <v>4.1500000000000004</v>
+          </cell>
+          <cell r="P370">
+            <v>8.4</v>
+          </cell>
+          <cell r="Q370">
+            <v>2.5</v>
+          </cell>
+          <cell r="R370">
+            <v>1.55</v>
+          </cell>
+          <cell r="S370">
+            <v>4.3499999999999996</v>
+          </cell>
+          <cell r="T370">
+            <v>4.0250000000000004</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="B373">
+            <v>8.8322222222222262</v>
+          </cell>
+          <cell r="C373">
+            <v>13.225555555555555</v>
+          </cell>
+          <cell r="D373">
+            <v>2.8200000000000007</v>
+          </cell>
+          <cell r="E373">
+            <v>4.5900000000000025</v>
+          </cell>
+          <cell r="F373">
+            <v>4.2522222222222235</v>
+          </cell>
+          <cell r="G373">
+            <v>7.9633333333333347</v>
+          </cell>
+          <cell r="H373">
+            <v>8.4000000000000057</v>
+          </cell>
+          <cell r="I373">
+            <v>5.6911111111111117</v>
+          </cell>
+          <cell r="J373">
+            <v>4.9455555555555568</v>
+          </cell>
+          <cell r="K373">
+            <v>3.4400000000000004</v>
+          </cell>
+          <cell r="L373">
+            <v>2.1311111111111121</v>
+          </cell>
+          <cell r="M373">
+            <v>2.0777777777777766</v>
+          </cell>
+          <cell r="N373">
+            <v>1.2422222222222223</v>
+          </cell>
+          <cell r="O373">
+            <v>8.9066666666666663</v>
+          </cell>
+          <cell r="P373">
+            <v>4.3822222222222207</v>
+          </cell>
+          <cell r="Q373">
+            <v>3.72</v>
+          </cell>
+          <cell r="R373">
+            <v>2.7966666666666664</v>
+          </cell>
+          <cell r="S373">
+            <v>6.2288888888888918</v>
+          </cell>
+          <cell r="T373">
+            <v>4.3544444444444448</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="B374">
+            <v>4.7522222222222199</v>
+          </cell>
+          <cell r="C374">
+            <v>8.8344444444444417</v>
+          </cell>
+          <cell r="D374">
+            <v>5.6222222222222236</v>
+          </cell>
+          <cell r="E374">
+            <v>6.2933333333333321</v>
+          </cell>
+          <cell r="F374">
+            <v>3.7744444444444443</v>
+          </cell>
+          <cell r="G374">
+            <v>11.551111111111108</v>
+          </cell>
+          <cell r="H374">
+            <v>7.2188888888888894</v>
+          </cell>
+          <cell r="I374">
+            <v>13.652222222222225</v>
+          </cell>
+          <cell r="J374">
+            <v>2.0255555555555547</v>
+          </cell>
+          <cell r="K374">
+            <v>2.5833333333333335</v>
+          </cell>
+          <cell r="L374">
+            <v>1.411111111111111</v>
+          </cell>
+          <cell r="M374">
+            <v>1.4588888888888896</v>
+          </cell>
+          <cell r="N374">
+            <v>1.647777777777778</v>
+          </cell>
+          <cell r="O374">
+            <v>5.0566666666666675</v>
+          </cell>
+          <cell r="P374">
+            <v>10.067777777777778</v>
+          </cell>
+          <cell r="Q374">
+            <v>1.9699999999999995</v>
+          </cell>
+          <cell r="R374">
+            <v>1.4844444444444445</v>
+          </cell>
+          <cell r="S374">
+            <v>4.0966666666666685</v>
+          </cell>
+          <cell r="T374">
+            <v>6.5022222222222217</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="B375">
+            <v>10.007777777777777</v>
+          </cell>
+          <cell r="C375">
+            <v>10.873333333333333</v>
+          </cell>
+          <cell r="D375">
+            <v>3.8011111111111107</v>
+          </cell>
+          <cell r="E375">
+            <v>4.5922222222222224</v>
+          </cell>
+          <cell r="F375">
+            <v>3.653333333333336</v>
+          </cell>
+          <cell r="G375">
+            <v>9.4444444444444429</v>
+          </cell>
+          <cell r="H375">
+            <v>5.424444444444446</v>
+          </cell>
+          <cell r="I375">
+            <v>6.4622222222222234</v>
+          </cell>
+          <cell r="J375">
+            <v>5.8788888888888877</v>
+          </cell>
+          <cell r="K375">
+            <v>3.5655555555555551</v>
+          </cell>
+          <cell r="L375">
+            <v>1.7366666666666661</v>
+          </cell>
+          <cell r="M375">
+            <v>1.6388888888888886</v>
+          </cell>
+          <cell r="N375">
+            <v>0.95666666666666689</v>
+          </cell>
+          <cell r="O375">
+            <v>9.6311111111111156</v>
+          </cell>
+          <cell r="P375">
+            <v>7.0333333333333332</v>
+          </cell>
+          <cell r="Q375">
+            <v>3.5033333333333343</v>
+          </cell>
+          <cell r="R375">
+            <v>1.9066666666666676</v>
+          </cell>
+          <cell r="S375">
+            <v>4.9155555555555548</v>
+          </cell>
+          <cell r="T375">
+            <v>4.9722222222222214</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="B376">
+            <v>6.6849462365591439</v>
+          </cell>
+          <cell r="C376">
+            <v>9.6451612903225801</v>
+          </cell>
+          <cell r="D376">
+            <v>3.9698924731182812</v>
+          </cell>
+          <cell r="E376">
+            <v>3.0182795698924725</v>
+          </cell>
+          <cell r="F376">
+            <v>1.754838709677419</v>
+          </cell>
+          <cell r="G376">
+            <v>12.21075268817204</v>
+          </cell>
+          <cell r="H376">
+            <v>7.9688172043010779</v>
+          </cell>
+          <cell r="I376">
+            <v>5.7118279569892492</v>
+          </cell>
+          <cell r="J376">
+            <v>2.6365591397849459</v>
+          </cell>
+          <cell r="K376">
+            <v>1.8376344086021497</v>
+          </cell>
+          <cell r="L376">
+            <v>0.93763440860215075</v>
+          </cell>
+          <cell r="M376">
+            <v>1.043010752688172</v>
+          </cell>
+          <cell r="N376">
+            <v>0.45268817204301115</v>
+          </cell>
+          <cell r="O376">
+            <v>6.0709677419354868</v>
+          </cell>
+          <cell r="P376">
+            <v>16.051612903225809</v>
+          </cell>
+          <cell r="Q376">
+            <v>2.9225806451612906</v>
+          </cell>
+          <cell r="R376">
+            <v>2.2397849462365587</v>
+          </cell>
+          <cell r="S376">
+            <v>7.9978494623655934</v>
+          </cell>
+          <cell r="T376">
+            <v>6.845161290322582</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="365">
+          <cell r="B365" t="str">
+            <v>PM2.5_Bias_ystd</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="B366">
+            <v>10.150438596491227</v>
+          </cell>
+          <cell r="C366">
+            <v>32.274122807017541</v>
+          </cell>
+          <cell r="D366">
+            <v>6.2254385964912258</v>
+          </cell>
+          <cell r="E366">
+            <v>3.1877192982456122</v>
+          </cell>
+          <cell r="F366">
+            <v>48.167105263157886</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="B367">
+            <v>11.334999999999999</v>
+          </cell>
+          <cell r="C367">
+            <v>31.294999999999987</v>
+          </cell>
+          <cell r="D367">
+            <v>7.6487500000000015</v>
+          </cell>
+          <cell r="E367">
+            <v>3.5224999999999995</v>
+          </cell>
+          <cell r="F367">
+            <v>46.203749999999999</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="B368">
+            <v>6.7928571428571436</v>
+          </cell>
+          <cell r="C368">
+            <v>43.024999999999999</v>
+          </cell>
+          <cell r="D368">
+            <v>3.7214285714285706</v>
+          </cell>
+          <cell r="E368">
+            <v>3.1035714285714286</v>
+          </cell>
+          <cell r="F368">
+            <v>43.371428571428567</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="B369">
+            <v>14.952173913043479</v>
+          </cell>
+          <cell r="C369">
+            <v>44.708695652173922</v>
+          </cell>
+          <cell r="D369">
+            <v>3.1434782608695655</v>
+          </cell>
+          <cell r="E369">
+            <v>2.3260869565217392</v>
+          </cell>
+          <cell r="F369">
+            <v>34.869565217391298</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="B370">
+            <v>24.45</v>
+          </cell>
+          <cell r="C370">
+            <v>45.274999999999999</v>
+          </cell>
+          <cell r="D370">
+            <v>2.25</v>
+          </cell>
+          <cell r="E370">
+            <v>1.325</v>
+          </cell>
+          <cell r="F370">
+            <v>26.700000000000003</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="B373">
+            <v>13.225555555555555</v>
+          </cell>
+          <cell r="C373">
+            <v>32.604444444444439</v>
+          </cell>
+          <cell r="D373">
+            <v>7.9344444444444475</v>
+          </cell>
+          <cell r="E373">
+            <v>4.0388888888888879</v>
+          </cell>
+          <cell r="F373">
+            <v>42.19777777777778</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="B374">
+            <v>8.8344444444444417</v>
+          </cell>
+          <cell r="C374">
+            <v>35.444444444444443</v>
+          </cell>
+          <cell r="D374">
+            <v>4.8422222222222233</v>
+          </cell>
+          <cell r="E374">
+            <v>3.132222222222222</v>
+          </cell>
+          <cell r="F374">
+            <v>47.762222222222228</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="B375">
+            <v>10.784444444444444</v>
+          </cell>
+          <cell r="C375">
+            <v>33.386666666666656</v>
+          </cell>
+          <cell r="D375">
+            <v>6.7911111111111113</v>
+          </cell>
+          <cell r="E375">
+            <v>2.8688888888888879</v>
+          </cell>
+          <cell r="F375">
+            <v>46.172222222222231</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="B376">
+            <v>9.6451612903225801</v>
+          </cell>
+          <cell r="C376">
+            <v>33.838709677419352</v>
+          </cell>
+          <cell r="D376">
+            <v>4.9000000000000012</v>
+          </cell>
+          <cell r="E376">
+            <v>2.6956989247311816</v>
+          </cell>
+          <cell r="F376">
+            <v>48.921505376344072</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -41984,6 +43795,2139 @@
           </cell>
           <cell r="F376">
             <v>47.287096774193543</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="BTH_detail"/>
+      <sheetName val="BTH_combine"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="365">
+          <cell r="B365" t="str">
+            <v>PM2.5_Sim</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="B366">
+            <v>12.456140350877194</v>
+          </cell>
+          <cell r="C366">
+            <v>11.941666666666665</v>
+          </cell>
+          <cell r="D366">
+            <v>2.0482456140350886</v>
+          </cell>
+          <cell r="E366">
+            <v>8.3039473684210527</v>
+          </cell>
+          <cell r="F366">
+            <v>2.3552631578947385</v>
+          </cell>
+          <cell r="G366">
+            <v>9.031140350877191</v>
+          </cell>
+          <cell r="H366">
+            <v>6.8596491228070171</v>
+          </cell>
+          <cell r="I366">
+            <v>4.6456140350877195</v>
+          </cell>
+          <cell r="J366">
+            <v>3.7578947368421072</v>
+          </cell>
+          <cell r="K366">
+            <v>4.5030701754385971</v>
+          </cell>
+          <cell r="L366">
+            <v>1.5517543859649114</v>
+          </cell>
+          <cell r="M366">
+            <v>1.4587719298245623</v>
+          </cell>
+          <cell r="N366">
+            <v>1.7969298245614029</v>
+          </cell>
+          <cell r="O366">
+            <v>4.3478070175438601</v>
+          </cell>
+          <cell r="P366">
+            <v>7.5885964912280652</v>
+          </cell>
+          <cell r="Q366">
+            <v>2.9614035087719284</v>
+          </cell>
+          <cell r="R366">
+            <v>5.7706140350877231</v>
+          </cell>
+          <cell r="S366">
+            <v>4.2478070175438623</v>
+          </cell>
+          <cell r="T366">
+            <v>4.4004385964912291</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="B367">
+            <v>11.559036144578313</v>
+          </cell>
+          <cell r="C367">
+            <v>10.463855421686745</v>
+          </cell>
+          <cell r="D367">
+            <v>3.1759036144578316</v>
+          </cell>
+          <cell r="E367">
+            <v>8.748192771084339</v>
+          </cell>
+          <cell r="F367">
+            <v>2.1301204819277104</v>
+          </cell>
+          <cell r="G367">
+            <v>10.509638554216867</v>
+          </cell>
+          <cell r="H367">
+            <v>6.8939759036144581</v>
+          </cell>
+          <cell r="I367">
+            <v>6.5819277108433729</v>
+          </cell>
+          <cell r="J367">
+            <v>4.9445783132530101</v>
+          </cell>
+          <cell r="K367">
+            <v>3.4120481927710844</v>
+          </cell>
+          <cell r="L367">
+            <v>1.109638554216867</v>
+          </cell>
+          <cell r="M367">
+            <v>1.3590361445783128</v>
+          </cell>
+          <cell r="N367">
+            <v>1.3228915662650598</v>
+          </cell>
+          <cell r="O367">
+            <v>4.0265060240963839</v>
+          </cell>
+          <cell r="P367">
+            <v>8.701204819277109</v>
+          </cell>
+          <cell r="Q367">
+            <v>2.5650602409638559</v>
+          </cell>
+          <cell r="R367">
+            <v>4.8180722891566274</v>
+          </cell>
+          <cell r="S367">
+            <v>3.2445783132530122</v>
+          </cell>
+          <cell r="T367">
+            <v>4.4457831325301216</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="B368">
+            <v>12.753571428571433</v>
+          </cell>
+          <cell r="C368">
+            <v>5.6464285714285722</v>
+          </cell>
+          <cell r="D368">
+            <v>3.55</v>
+          </cell>
+          <cell r="E368">
+            <v>5.7892857142857137</v>
+          </cell>
+          <cell r="F368">
+            <v>2.2178571428571425</v>
+          </cell>
+          <cell r="G368">
+            <v>17.671428571428571</v>
+          </cell>
+          <cell r="H368">
+            <v>4.3607142857142849</v>
+          </cell>
+          <cell r="I368">
+            <v>5.6464285714285731</v>
+          </cell>
+          <cell r="J368">
+            <v>3.9107142857142856</v>
+          </cell>
+          <cell r="K368">
+            <v>1.9357142857142857</v>
+          </cell>
+          <cell r="L368">
+            <v>0.49285714285714277</v>
+          </cell>
+          <cell r="M368">
+            <v>0.97499999999999998</v>
+          </cell>
+          <cell r="N368">
+            <v>1.2535714285714286</v>
+          </cell>
+          <cell r="O368">
+            <v>5.4749999999999996</v>
+          </cell>
+          <cell r="P368">
+            <v>14.510714285714288</v>
+          </cell>
+          <cell r="Q368">
+            <v>2.3964285714285714</v>
+          </cell>
+          <cell r="R368">
+            <v>4.0714285714285712</v>
+          </cell>
+          <cell r="S368">
+            <v>2.4857142857142853</v>
+          </cell>
+          <cell r="T368">
+            <v>4.8428571428571434</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="B369">
+            <v>5.3304347826086964</v>
+          </cell>
+          <cell r="C369">
+            <v>15.213043478260868</v>
+          </cell>
+          <cell r="D369">
+            <v>4.8434782608695652</v>
+          </cell>
+          <cell r="E369">
+            <v>4.7565217391304353</v>
+          </cell>
+          <cell r="F369">
+            <v>1.0608695652173914</v>
+          </cell>
+          <cell r="G369">
+            <v>23.508695652173909</v>
+          </cell>
+          <cell r="H369">
+            <v>3.6304347826086958</v>
+          </cell>
+          <cell r="I369">
+            <v>7.4217391304347835</v>
+          </cell>
+          <cell r="J369">
+            <v>4.3130434782608686</v>
+          </cell>
+          <cell r="K369">
+            <v>0.89565217391304375</v>
+          </cell>
+          <cell r="L369">
+            <v>0.54782608695652169</v>
+          </cell>
+          <cell r="M369">
+            <v>1.0434782608695652</v>
+          </cell>
+          <cell r="N369">
+            <v>0.43043478260869567</v>
+          </cell>
+          <cell r="O369">
+            <v>4.730434782608695</v>
+          </cell>
+          <cell r="P369">
+            <v>11.034782608695652</v>
+          </cell>
+          <cell r="Q369">
+            <v>1.2565217391304349</v>
+          </cell>
+          <cell r="R369">
+            <v>3.7347826086956517</v>
+          </cell>
+          <cell r="S369">
+            <v>3.4391304347826086</v>
+          </cell>
+          <cell r="T369">
+            <v>2.8043478260869565</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="B370">
+            <v>4.5</v>
+          </cell>
+          <cell r="C370">
+            <v>18.3</v>
+          </cell>
+          <cell r="D370">
+            <v>8.1749999999999989</v>
+          </cell>
+          <cell r="E370">
+            <v>2.0750000000000002</v>
+          </cell>
+          <cell r="F370">
+            <v>1.75</v>
+          </cell>
+          <cell r="G370">
+            <v>26.2</v>
+          </cell>
+          <cell r="H370">
+            <v>3.0999999999999996</v>
+          </cell>
+          <cell r="I370">
+            <v>7.75</v>
+          </cell>
+          <cell r="J370">
+            <v>2.0249999999999999</v>
+          </cell>
+          <cell r="K370">
+            <v>0.125</v>
+          </cell>
+          <cell r="L370">
+            <v>0.4</v>
+          </cell>
+          <cell r="M370">
+            <v>0.35000000000000003</v>
+          </cell>
+          <cell r="N370">
+            <v>0.35</v>
+          </cell>
+          <cell r="O370">
+            <v>3.1</v>
+          </cell>
+          <cell r="P370">
+            <v>13.3</v>
+          </cell>
+          <cell r="Q370">
+            <v>1.5250000000000001</v>
+          </cell>
+          <cell r="R370">
+            <v>2.9250000000000003</v>
+          </cell>
+          <cell r="S370">
+            <v>2.85</v>
+          </cell>
+          <cell r="T370">
+            <v>1.1000000000000001</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="B373">
+            <v>18.841111111111108</v>
+          </cell>
+          <cell r="C373">
+            <v>11.363333333333333</v>
+          </cell>
+          <cell r="D373">
+            <v>1.405555555555555</v>
+          </cell>
+          <cell r="E373">
+            <v>5.7622222222222215</v>
+          </cell>
+          <cell r="F373">
+            <v>1.9611111111111108</v>
+          </cell>
+          <cell r="G373">
+            <v>9.0077777777777754</v>
+          </cell>
+          <cell r="H373">
+            <v>5.4688888888888902</v>
+          </cell>
+          <cell r="I373">
+            <v>3.9977777777777774</v>
+          </cell>
+          <cell r="J373">
+            <v>4.2844444444444445</v>
+          </cell>
+          <cell r="K373">
+            <v>5.8533333333333299</v>
+          </cell>
+          <cell r="L373">
+            <v>1.4666666666666666</v>
+          </cell>
+          <cell r="M373">
+            <v>1.6444444444444442</v>
+          </cell>
+          <cell r="N373">
+            <v>1.322222222222222</v>
+          </cell>
+          <cell r="O373">
+            <v>4.7066666666666661</v>
+          </cell>
+          <cell r="P373">
+            <v>5.9244444444444451</v>
+          </cell>
+          <cell r="Q373">
+            <v>3.2822222222222215</v>
+          </cell>
+          <cell r="R373">
+            <v>4.2688888888888901</v>
+          </cell>
+          <cell r="S373">
+            <v>5.3666666666666671</v>
+          </cell>
+          <cell r="T373">
+            <v>4.1133333333333342</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="B374">
+            <v>11.535555555555554</v>
+          </cell>
+          <cell r="C374">
+            <v>10.452222222222218</v>
+          </cell>
+          <cell r="D374">
+            <v>2.0733333333333337</v>
+          </cell>
+          <cell r="E374">
+            <v>11.686666666666669</v>
+          </cell>
+          <cell r="F374">
+            <v>2.5966666666666667</v>
+          </cell>
+          <cell r="G374">
+            <v>12.456666666666669</v>
+          </cell>
+          <cell r="H374">
+            <v>8.8611111111111054</v>
+          </cell>
+          <cell r="I374">
+            <v>6.3200000000000021</v>
+          </cell>
+          <cell r="J374">
+            <v>3.0066666666666655</v>
+          </cell>
+          <cell r="K374">
+            <v>3.0777777777777766</v>
+          </cell>
+          <cell r="L374">
+            <v>1.2222222222222219</v>
+          </cell>
+          <cell r="M374">
+            <v>1.3177777777777779</v>
+          </cell>
+          <cell r="N374">
+            <v>2.2777777777777768</v>
+          </cell>
+          <cell r="O374">
+            <v>3.066666666666666</v>
+          </cell>
+          <cell r="P374">
+            <v>5.6977777777777776</v>
+          </cell>
+          <cell r="Q374">
+            <v>1.8066666666666666</v>
+          </cell>
+          <cell r="R374">
+            <v>5.4844444444444429</v>
+          </cell>
+          <cell r="S374">
+            <v>3.3888888888888933</v>
+          </cell>
+          <cell r="T374">
+            <v>3.6911111111111108</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="B375">
+            <v>10.935555555555558</v>
+          </cell>
+          <cell r="C375">
+            <v>13.714444444444455</v>
+          </cell>
+          <cell r="D375">
+            <v>2.9744444444444449</v>
+          </cell>
+          <cell r="E375">
+            <v>7.6511111111111143</v>
+          </cell>
+          <cell r="F375">
+            <v>2.5244444444444438</v>
+          </cell>
+          <cell r="G375">
+            <v>8.3511111111111127</v>
+          </cell>
+          <cell r="H375">
+            <v>5.1233333333333348</v>
+          </cell>
+          <cell r="I375">
+            <v>4.6744444444444433</v>
+          </cell>
+          <cell r="J375">
+            <v>4.0211111111111117</v>
+          </cell>
+          <cell r="K375">
+            <v>4.5777777777777784</v>
+          </cell>
+          <cell r="L375">
+            <v>1.3699999999999994</v>
+          </cell>
+          <cell r="M375">
+            <v>1.1055555555555556</v>
+          </cell>
+          <cell r="N375">
+            <v>1.3277777777777777</v>
+          </cell>
+          <cell r="O375">
+            <v>5.3722222222222209</v>
+          </cell>
+          <cell r="P375">
+            <v>9.2166666666666686</v>
+          </cell>
+          <cell r="Q375">
+            <v>3.2111111111111117</v>
+          </cell>
+          <cell r="R375">
+            <v>5.9766666666666666</v>
+          </cell>
+          <cell r="S375">
+            <v>3.0855555555555561</v>
+          </cell>
+          <cell r="T375">
+            <v>4.8044444444444432</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="B376">
+            <v>5.4419354838709681</v>
+          </cell>
+          <cell r="C376">
+            <v>9.460215053763438</v>
+          </cell>
+          <cell r="D376">
+            <v>4.0333333333333332</v>
+          </cell>
+          <cell r="E376">
+            <v>6.9505376344086018</v>
+          </cell>
+          <cell r="F376">
+            <v>1.6225806451612907</v>
+          </cell>
+          <cell r="G376">
+            <v>13.880645161290314</v>
+          </cell>
+          <cell r="H376">
+            <v>6.3516129032258091</v>
+          </cell>
+          <cell r="I376">
+            <v>5.9333333333333345</v>
+          </cell>
+          <cell r="J376">
+            <v>5.1096774193548402</v>
+          </cell>
+          <cell r="K376">
+            <v>1.8881720430107531</v>
+          </cell>
+          <cell r="L376">
+            <v>1.295698924731183</v>
+          </cell>
+          <cell r="M376">
+            <v>1.420430107526881</v>
+          </cell>
+          <cell r="N376">
+            <v>1.3064516129032255</v>
+          </cell>
+          <cell r="O376">
+            <v>4.4376344086021504</v>
+          </cell>
+          <cell r="P376">
+            <v>14.148387096774201</v>
+          </cell>
+          <cell r="Q376">
+            <v>2.4494623655913972</v>
+          </cell>
+          <cell r="R376">
+            <v>5.5021505376344075</v>
+          </cell>
+          <cell r="S376">
+            <v>3.8548387096774195</v>
+          </cell>
+          <cell r="T376">
+            <v>4.9182795698924728</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="365">
+          <cell r="B365" t="str">
+            <v>PM2.5_Bias_ystd</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="B366">
+            <v>11.941666666666665</v>
+          </cell>
+          <cell r="C366">
+            <v>38.692543859649128</v>
+          </cell>
+          <cell r="D366">
+            <v>5.9649122807017534</v>
+          </cell>
+          <cell r="E366">
+            <v>7.5631578947368379</v>
+          </cell>
+          <cell r="F366">
+            <v>35.838157894736845</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="B367">
+            <v>9.3449999999999989</v>
+          </cell>
+          <cell r="C367">
+            <v>40.065000000000005</v>
+          </cell>
+          <cell r="D367">
+            <v>5.128750000000001</v>
+          </cell>
+          <cell r="E367">
+            <v>6.2387499999999978</v>
+          </cell>
+          <cell r="F367">
+            <v>39.221250000000012</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="B368">
+            <v>5.6464285714285722</v>
+          </cell>
+          <cell r="C368">
+            <v>44.142857142857132</v>
+          </cell>
+          <cell r="D368">
+            <v>3.8607142857142853</v>
+          </cell>
+          <cell r="E368">
+            <v>5.3178571428571431</v>
+          </cell>
+          <cell r="F368">
+            <v>41.053571428571431</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="B369">
+            <v>15.213043478260868</v>
+          </cell>
+          <cell r="C369">
+            <v>42.069565217391307</v>
+          </cell>
+          <cell r="D369">
+            <v>2.8347826086956522</v>
+          </cell>
+          <cell r="E369">
+            <v>4.1652173913043482</v>
+          </cell>
+          <cell r="F369">
+            <v>35.713043478260872</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="B370">
+            <v>22.674999999999997</v>
+          </cell>
+          <cell r="C370">
+            <v>44.6</v>
+          </cell>
+          <cell r="D370">
+            <v>2.7249999999999996</v>
+          </cell>
+          <cell r="E370">
+            <v>2.1</v>
+          </cell>
+          <cell r="F370">
+            <v>27.900000000000002</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="B373">
+            <v>11.363333333333333</v>
+          </cell>
+          <cell r="C373">
+            <v>40.472222222222236</v>
+          </cell>
+          <cell r="D373">
+            <v>6.3788888888888877</v>
+          </cell>
+          <cell r="E373">
+            <v>5.586666666666666</v>
+          </cell>
+          <cell r="F373">
+            <v>36.195555555555543</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="B374">
+            <v>10.452222222222218</v>
+          </cell>
+          <cell r="C374">
+            <v>46.612222222222215</v>
+          </cell>
+          <cell r="D374">
+            <v>4.3533333333333326</v>
+          </cell>
+          <cell r="E374">
+            <v>7.7544444444444451</v>
+          </cell>
+          <cell r="F374">
+            <v>30.825555555555539</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="B375">
+            <v>13.62000000000001</v>
+          </cell>
+          <cell r="C375">
+            <v>35.135555555555563</v>
+          </cell>
+          <cell r="D375">
+            <v>5.6433333333333318</v>
+          </cell>
+          <cell r="E375">
+            <v>7.1455555555555534</v>
+          </cell>
+          <cell r="F375">
+            <v>38.461111111111109</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="B376">
+            <v>9.460215053763438</v>
+          </cell>
+          <cell r="C376">
+            <v>36.659139784946241</v>
+          </cell>
+          <cell r="D376">
+            <v>5.1688172043010754</v>
+          </cell>
+          <cell r="E376">
+            <v>6.8043010752688176</v>
+          </cell>
+          <cell r="F376">
+            <v>41.912903225806453</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="BTH_detail"/>
+      <sheetName val="BTH_combine"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="365">
+          <cell r="B365" t="str">
+            <v>PM2.5_Sim</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="B366">
+            <v>8.9394736842105402</v>
+          </cell>
+          <cell r="C366">
+            <v>12.97850877192981</v>
+          </cell>
+          <cell r="D366">
+            <v>2.8442982456140342</v>
+          </cell>
+          <cell r="E366">
+            <v>10.909210526315793</v>
+          </cell>
+          <cell r="F366">
+            <v>2.2872807017543866</v>
+          </cell>
+          <cell r="G366">
+            <v>7.3776315789473719</v>
+          </cell>
+          <cell r="H366">
+            <v>6.7574561403508797</v>
+          </cell>
+          <cell r="I366">
+            <v>3.5109649122807047</v>
+          </cell>
+          <cell r="J366">
+            <v>4.377631578947371</v>
+          </cell>
+          <cell r="K366">
+            <v>6.1478070175438626</v>
+          </cell>
+          <cell r="L366">
+            <v>2.130263157894738</v>
+          </cell>
+          <cell r="M366">
+            <v>3.2425438596491221</v>
+          </cell>
+          <cell r="N366">
+            <v>4.0385964912280699</v>
+          </cell>
+          <cell r="O366">
+            <v>2.6592105263157886</v>
+          </cell>
+          <cell r="P366">
+            <v>4.775000000000003</v>
+          </cell>
+          <cell r="Q366">
+            <v>2.9166666666666647</v>
+          </cell>
+          <cell r="R366">
+            <v>8.8372807017543877</v>
+          </cell>
+          <cell r="S366">
+            <v>2.9271929824561411</v>
+          </cell>
+          <cell r="T366">
+            <v>2.3521929824561405</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="B367">
+            <v>9.095180722891568</v>
+          </cell>
+          <cell r="C367">
+            <v>11.608433734939764</v>
+          </cell>
+          <cell r="D367">
+            <v>2.8096385542168671</v>
+          </cell>
+          <cell r="E367">
+            <v>9.9987951807228921</v>
+          </cell>
+          <cell r="F367">
+            <v>2.3108433734939759</v>
+          </cell>
+          <cell r="G367">
+            <v>8.9301204819277071</v>
+          </cell>
+          <cell r="H367">
+            <v>7.725301204819278</v>
+          </cell>
+          <cell r="I367">
+            <v>4.5963855421686741</v>
+          </cell>
+          <cell r="J367">
+            <v>4.6975903614457852</v>
+          </cell>
+          <cell r="K367">
+            <v>3.7879518072289162</v>
+          </cell>
+          <cell r="L367">
+            <v>1.4843373493975902</v>
+          </cell>
+          <cell r="M367">
+            <v>3.6445783132530112</v>
+          </cell>
+          <cell r="N367">
+            <v>3.8891566265060256</v>
+          </cell>
+          <cell r="O367">
+            <v>3.0469879518072291</v>
+          </cell>
+          <cell r="P367">
+            <v>5.636144578313254</v>
+          </cell>
+          <cell r="Q367">
+            <v>2.6096385542168692</v>
+          </cell>
+          <cell r="R367">
+            <v>9.0204819277108452</v>
+          </cell>
+          <cell r="S367">
+            <v>2.3963855421686748</v>
+          </cell>
+          <cell r="T367">
+            <v>2.697590361445783</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="B368">
+            <v>7.6678571428571418</v>
+          </cell>
+          <cell r="C368">
+            <v>11.553571428571427</v>
+          </cell>
+          <cell r="D368">
+            <v>3.6178571428571433</v>
+          </cell>
+          <cell r="E368">
+            <v>6.6285714285714281</v>
+          </cell>
+          <cell r="F368">
+            <v>3.2035714285714287</v>
+          </cell>
+          <cell r="G368">
+            <v>9.8857142857142861</v>
+          </cell>
+          <cell r="H368">
+            <v>5.921428571428569</v>
+          </cell>
+          <cell r="I368">
+            <v>4.4428571428571439</v>
+          </cell>
+          <cell r="J368">
+            <v>4.4178571428571427</v>
+          </cell>
+          <cell r="K368">
+            <v>4.0785714285714283</v>
+          </cell>
+          <cell r="L368">
+            <v>0.92499999999999993</v>
+          </cell>
+          <cell r="M368">
+            <v>4.5428571428571436</v>
+          </cell>
+          <cell r="N368">
+            <v>5.3607142857142867</v>
+          </cell>
+          <cell r="O368">
+            <v>3.9714285714285715</v>
+          </cell>
+          <cell r="P368">
+            <v>8.6535714285714285</v>
+          </cell>
+          <cell r="Q368">
+            <v>2.2035714285714283</v>
+          </cell>
+          <cell r="R368">
+            <v>8.4392857142857149</v>
+          </cell>
+          <cell r="S368">
+            <v>2.0964285714285711</v>
+          </cell>
+          <cell r="T368">
+            <v>2.3500000000000005</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="B369">
+            <v>5.9043478260869549</v>
+          </cell>
+          <cell r="C369">
+            <v>11.882608695652175</v>
+          </cell>
+          <cell r="D369">
+            <v>4.2652173913043487</v>
+          </cell>
+          <cell r="E369">
+            <v>7.5521739130434788</v>
+          </cell>
+          <cell r="F369">
+            <v>2.1999999999999997</v>
+          </cell>
+          <cell r="G369">
+            <v>11.656521739130437</v>
+          </cell>
+          <cell r="H369">
+            <v>5.4913043478260866</v>
+          </cell>
+          <cell r="I369">
+            <v>5.2565217391304335</v>
+          </cell>
+          <cell r="J369">
+            <v>4.9391304347826095</v>
+          </cell>
+          <cell r="K369">
+            <v>2.017391304347826</v>
+          </cell>
+          <cell r="L369">
+            <v>1.3565217391304352</v>
+          </cell>
+          <cell r="M369">
+            <v>4.9826086956521749</v>
+          </cell>
+          <cell r="N369">
+            <v>4.6869565217391314</v>
+          </cell>
+          <cell r="O369">
+            <v>4.1347826086956525</v>
+          </cell>
+          <cell r="P369">
+            <v>6.3130434782608686</v>
+          </cell>
+          <cell r="Q369">
+            <v>2.3521739130434782</v>
+          </cell>
+          <cell r="R369">
+            <v>9.9913043478260839</v>
+          </cell>
+          <cell r="S369">
+            <v>2.8913043478260869</v>
+          </cell>
+          <cell r="T369">
+            <v>2.1086956521739126</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="B370">
+            <v>2.5999999999999996</v>
+          </cell>
+          <cell r="C370">
+            <v>14.775</v>
+          </cell>
+          <cell r="D370">
+            <v>4.7249999999999996</v>
+          </cell>
+          <cell r="E370">
+            <v>5.875</v>
+          </cell>
+          <cell r="F370">
+            <v>2.9</v>
+          </cell>
+          <cell r="G370">
+            <v>12.125</v>
+          </cell>
+          <cell r="H370">
+            <v>3.5</v>
+          </cell>
+          <cell r="I370">
+            <v>5.4249999999999998</v>
+          </cell>
+          <cell r="J370">
+            <v>3.6</v>
+          </cell>
+          <cell r="K370">
+            <v>1.5499999999999998</v>
+          </cell>
+          <cell r="L370">
+            <v>1.25</v>
+          </cell>
+          <cell r="M370">
+            <v>5.0249999999999995</v>
+          </cell>
+          <cell r="N370">
+            <v>5.625</v>
+          </cell>
+          <cell r="O370">
+            <v>4.1000000000000005</v>
+          </cell>
+          <cell r="P370">
+            <v>8.875</v>
+          </cell>
+          <cell r="Q370">
+            <v>2.4249999999999998</v>
+          </cell>
+          <cell r="R370">
+            <v>11.625</v>
+          </cell>
+          <cell r="S370">
+            <v>3.05</v>
+          </cell>
+          <cell r="T370">
+            <v>0.95000000000000007</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="B373">
+            <v>12.57222222222223</v>
+          </cell>
+          <cell r="C373">
+            <v>14.592222222222219</v>
+          </cell>
+          <cell r="D373">
+            <v>2.4788888888888878</v>
+          </cell>
+          <cell r="E373">
+            <v>11.081111111111106</v>
+          </cell>
+          <cell r="F373">
+            <v>1.9588888888888893</v>
+          </cell>
+          <cell r="G373">
+            <v>8.2933333333333348</v>
+          </cell>
+          <cell r="H373">
+            <v>6.4088888888888871</v>
+          </cell>
+          <cell r="I373">
+            <v>3.14777777777778</v>
+          </cell>
+          <cell r="J373">
+            <v>4.2411111111111124</v>
+          </cell>
+          <cell r="K373">
+            <v>5.8088888888888892</v>
+          </cell>
+          <cell r="L373">
+            <v>1.9288888888888884</v>
+          </cell>
+          <cell r="M373">
+            <v>3.207777777777777</v>
+          </cell>
+          <cell r="N373">
+            <v>3.3288888888888897</v>
+          </cell>
+          <cell r="O373">
+            <v>2.4499999999999988</v>
+          </cell>
+          <cell r="P373">
+            <v>4.3222222222222237</v>
+          </cell>
+          <cell r="Q373">
+            <v>2.5622222222222231</v>
+          </cell>
+          <cell r="R373">
+            <v>6.8744444444444435</v>
+          </cell>
+          <cell r="S373">
+            <v>2.5855555555555561</v>
+          </cell>
+          <cell r="T373">
+            <v>2.1655555555555557</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="B374">
+            <v>9.612222222222222</v>
+          </cell>
+          <cell r="C374">
+            <v>13.69777777777778</v>
+          </cell>
+          <cell r="D374">
+            <v>2.0911111111111116</v>
+          </cell>
+          <cell r="E374">
+            <v>11.581111111111111</v>
+          </cell>
+          <cell r="F374">
+            <v>2.0744444444444445</v>
+          </cell>
+          <cell r="G374">
+            <v>8.8622222222222256</v>
+          </cell>
+          <cell r="H374">
+            <v>8.3577777777777875</v>
+          </cell>
+          <cell r="I374">
+            <v>3.5844444444444452</v>
+          </cell>
+          <cell r="J374">
+            <v>5.286666666666668</v>
+          </cell>
+          <cell r="K374">
+            <v>6.3244444444444445</v>
+          </cell>
+          <cell r="L374">
+            <v>1.631111111111111</v>
+          </cell>
+          <cell r="M374">
+            <v>3.0377777777777784</v>
+          </cell>
+          <cell r="N374">
+            <v>2.4900000000000002</v>
+          </cell>
+          <cell r="O374">
+            <v>3.112222222222222</v>
+          </cell>
+          <cell r="P374">
+            <v>3.5688888888888886</v>
+          </cell>
+          <cell r="Q374">
+            <v>2.3066666666666675</v>
+          </cell>
+          <cell r="R374">
+            <v>7.9077777777777767</v>
+          </cell>
+          <cell r="S374">
+            <v>2.4211111111111108</v>
+          </cell>
+          <cell r="T374">
+            <v>2.0466666666666669</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="B375">
+            <v>7.2833333333333332</v>
+          </cell>
+          <cell r="C375">
+            <v>13.175555555555567</v>
+          </cell>
+          <cell r="D375">
+            <v>3.1277777777777778</v>
+          </cell>
+          <cell r="E375">
+            <v>9.588888888888885</v>
+          </cell>
+          <cell r="F375">
+            <v>2.5411111111111109</v>
+          </cell>
+          <cell r="G375">
+            <v>7.1233333333333348</v>
+          </cell>
+          <cell r="H375">
+            <v>6.8866666666666685</v>
+          </cell>
+          <cell r="I375">
+            <v>4.1788888888888875</v>
+          </cell>
+          <cell r="J375">
+            <v>4.0033333333333356</v>
+          </cell>
+          <cell r="K375">
+            <v>6.0577777777777779</v>
+          </cell>
+          <cell r="L375">
+            <v>2.0299999999999998</v>
+          </cell>
+          <cell r="M375">
+            <v>3.0677777777777782</v>
+          </cell>
+          <cell r="N375">
+            <v>4.2311111111111117</v>
+          </cell>
+          <cell r="O375">
+            <v>3.4277777777777789</v>
+          </cell>
+          <cell r="P375">
+            <v>6.2188888888888902</v>
+          </cell>
+          <cell r="Q375">
+            <v>3.1400000000000015</v>
+          </cell>
+          <cell r="R375">
+            <v>8.2244444444444458</v>
+          </cell>
+          <cell r="S375">
+            <v>3.1077777777777782</v>
+          </cell>
+          <cell r="T375">
+            <v>2.5866666666666656</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="B376">
+            <v>5.0021505376344084</v>
+          </cell>
+          <cell r="C376">
+            <v>8.6064516129032231</v>
+          </cell>
+          <cell r="D376">
+            <v>4.3193548387096774</v>
+          </cell>
+          <cell r="E376">
+            <v>8.8903225806451633</v>
+          </cell>
+          <cell r="F376">
+            <v>2.8892473118279587</v>
+          </cell>
+          <cell r="G376">
+            <v>8.2096774193548381</v>
+          </cell>
+          <cell r="H376">
+            <v>5.8655913978494683</v>
+          </cell>
+          <cell r="I376">
+            <v>4.6720430107526898</v>
+          </cell>
+          <cell r="J376">
+            <v>4.4774193548387053</v>
+          </cell>
+          <cell r="K376">
+            <v>2.6956989247311829</v>
+          </cell>
+          <cell r="L376">
+            <v>1.9440860215053766</v>
+          </cell>
+          <cell r="M376">
+            <v>4.9043010752688163</v>
+          </cell>
+          <cell r="N376">
+            <v>6.4892473118279561</v>
+          </cell>
+          <cell r="O376">
+            <v>2.6559139784946244</v>
+          </cell>
+          <cell r="P376">
+            <v>7.1236559139784958</v>
+          </cell>
+          <cell r="Q376">
+            <v>2.9290322580645172</v>
+          </cell>
+          <cell r="R376">
+            <v>12.418279569892475</v>
+          </cell>
+          <cell r="S376">
+            <v>2.9053763440860214</v>
+          </cell>
+          <cell r="T376">
+            <v>3.0053763440860215</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="365">
+          <cell r="B365" t="str">
+            <v>PM2.5_Bias_ystd</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="B366">
+            <v>12.97850877192981</v>
+          </cell>
+          <cell r="C366">
+            <v>36.821491228070187</v>
+          </cell>
+          <cell r="D366">
+            <v>8.2907894736842103</v>
+          </cell>
+          <cell r="E366">
+            <v>12.875877192982456</v>
+          </cell>
+          <cell r="F366">
+            <v>29.032017543859659</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="B367">
+            <v>11.557500000000006</v>
+          </cell>
+          <cell r="C367">
+            <v>38.748750000000008</v>
+          </cell>
+          <cell r="D367">
+            <v>7.7862500000000052</v>
+          </cell>
+          <cell r="E367">
+            <v>12.778749999999999</v>
+          </cell>
+          <cell r="F367">
+            <v>29.130000000000003</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="B368">
+            <v>11.553571428571427</v>
+          </cell>
+          <cell r="C368">
+            <v>33.710714285714296</v>
+          </cell>
+          <cell r="D368">
+            <v>7.6714285714285735</v>
+          </cell>
+          <cell r="E368">
+            <v>13.814285714285717</v>
+          </cell>
+          <cell r="F368">
+            <v>33.232142857142854</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="B369">
+            <v>11.882608695652175</v>
+          </cell>
+          <cell r="C369">
+            <v>34.878260869565217</v>
+          </cell>
+          <cell r="D369">
+            <v>8.6782608695652179</v>
+          </cell>
+          <cell r="E369">
+            <v>14.669565217391305</v>
+          </cell>
+          <cell r="F369">
+            <v>29.891304347826086</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="B370">
+            <v>12.350000000000001</v>
+          </cell>
+          <cell r="C370">
+            <v>34.35</v>
+          </cell>
+          <cell r="D370">
+            <v>10.3</v>
+          </cell>
+          <cell r="E370">
+            <v>14.225000000000001</v>
+          </cell>
+          <cell r="F370">
+            <v>28.775000000000002</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="B373">
+            <v>14.592222222222219</v>
+          </cell>
+          <cell r="C373">
+            <v>40.819999999999986</v>
+          </cell>
+          <cell r="D373">
+            <v>7.7022222222222227</v>
+          </cell>
+          <cell r="E373">
+            <v>10.199999999999999</v>
+          </cell>
+          <cell r="F373">
+            <v>26.684444444444448</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="B374">
+            <v>13.69777777777778</v>
+          </cell>
+          <cell r="C374">
+            <v>40.498888888888899</v>
+          </cell>
+          <cell r="D374">
+            <v>6.9788888888888883</v>
+          </cell>
+          <cell r="E374">
+            <v>10.403333333333334</v>
+          </cell>
+          <cell r="F374">
+            <v>28.431111111111115</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="B375">
+            <v>13.148888888888898</v>
+          </cell>
+          <cell r="C375">
+            <v>33.968888888888884</v>
+          </cell>
+          <cell r="D375">
+            <v>8.2066666666666652</v>
+          </cell>
+          <cell r="E375">
+            <v>12.516666666666667</v>
+          </cell>
+          <cell r="F375">
+            <v>32.152222222222235</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="B376">
+            <v>8.6064516129032231</v>
+          </cell>
+          <cell r="C376">
+            <v>32.288172043010761</v>
+          </cell>
+          <cell r="D376">
+            <v>9.773118279569891</v>
+          </cell>
+          <cell r="E376">
+            <v>18.906451612903222</v>
+          </cell>
+          <cell r="F376">
+            <v>30.416129032258063</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="BTH_detail"/>
+      <sheetName val="BTH_combine"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="365">
+          <cell r="B365" t="str">
+            <v>PM2.5_Sim</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="B366">
+            <v>9.7706140350877124</v>
+          </cell>
+          <cell r="C366">
+            <v>11.723245614035097</v>
+          </cell>
+          <cell r="D366">
+            <v>3.4021929824561408</v>
+          </cell>
+          <cell r="E366">
+            <v>10.533333333333337</v>
+          </cell>
+          <cell r="F366">
+            <v>2.7469298245614038</v>
+          </cell>
+          <cell r="G366">
+            <v>8.2850877192982502</v>
+          </cell>
+          <cell r="H366">
+            <v>7.2061403508771953</v>
+          </cell>
+          <cell r="I366">
+            <v>6.18333333333333</v>
+          </cell>
+          <cell r="J366">
+            <v>5.3934210526315782</v>
+          </cell>
+          <cell r="K366">
+            <v>3.9508771929824591</v>
+          </cell>
+          <cell r="L366">
+            <v>1.7631578947368407</v>
+          </cell>
+          <cell r="M366">
+            <v>2.8877192982456159</v>
+          </cell>
+          <cell r="N366">
+            <v>2.6478070175438617</v>
+          </cell>
+          <cell r="O366">
+            <v>7.0846491228070176</v>
+          </cell>
+          <cell r="P366">
+            <v>5.0785087719298252</v>
+          </cell>
+          <cell r="Q366">
+            <v>1.9114035087719292</v>
+          </cell>
+          <cell r="R366">
+            <v>2.9758771929824586</v>
+          </cell>
+          <cell r="S366">
+            <v>3.9048245614035082</v>
+          </cell>
+          <cell r="T366">
+            <v>2.5429824561403498</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="B367">
+            <v>7.4012048192771118</v>
+          </cell>
+          <cell r="C367">
+            <v>12.232530120481925</v>
+          </cell>
+          <cell r="D367">
+            <v>4.4807228915662654</v>
+          </cell>
+          <cell r="E367">
+            <v>7.910843373493976</v>
+          </cell>
+          <cell r="F367">
+            <v>3.0939759036144578</v>
+          </cell>
+          <cell r="G367">
+            <v>8.6072289156626525</v>
+          </cell>
+          <cell r="H367">
+            <v>7.7337349397590334</v>
+          </cell>
+          <cell r="I367">
+            <v>4.5481927710843362</v>
+          </cell>
+          <cell r="J367">
+            <v>6.3012048192771068</v>
+          </cell>
+          <cell r="K367">
+            <v>4.3216867469879521</v>
+          </cell>
+          <cell r="L367">
+            <v>2.0325301204819257</v>
+          </cell>
+          <cell r="M367">
+            <v>3.83855421686747</v>
+          </cell>
+          <cell r="N367">
+            <v>2.7759036144578308</v>
+          </cell>
+          <cell r="O367">
+            <v>6.0036144578313246</v>
+          </cell>
+          <cell r="P367">
+            <v>6.0397590361445781</v>
+          </cell>
+          <cell r="Q367">
+            <v>1.8313253012048201</v>
+          </cell>
+          <cell r="R367">
+            <v>4.678313253012047</v>
+          </cell>
+          <cell r="S367">
+            <v>3.4783132530120482</v>
+          </cell>
+          <cell r="T367">
+            <v>2.6710843373493978</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="B368">
+            <v>5.2964285714285699</v>
+          </cell>
+          <cell r="C368">
+            <v>14.11071428571428</v>
+          </cell>
+          <cell r="D368">
+            <v>3.9392857142857141</v>
+          </cell>
+          <cell r="E368">
+            <v>5.4428571428571439</v>
+          </cell>
+          <cell r="F368">
+            <v>2.3857142857142857</v>
+          </cell>
+          <cell r="G368">
+            <v>10.196428571428571</v>
+          </cell>
+          <cell r="H368">
+            <v>4.5464285714285708</v>
+          </cell>
+          <cell r="I368">
+            <v>2.65</v>
+          </cell>
+          <cell r="J368">
+            <v>5.6214285714285719</v>
+          </cell>
+          <cell r="K368">
+            <v>3.746428571428571</v>
+          </cell>
+          <cell r="L368">
+            <v>2.0785714285714287</v>
+          </cell>
+          <cell r="M368">
+            <v>5.6892857142857141</v>
+          </cell>
+          <cell r="N368">
+            <v>3.2321428571428568</v>
+          </cell>
+          <cell r="O368">
+            <v>6.9321428571428569</v>
+          </cell>
+          <cell r="P368">
+            <v>7.0428571428571427</v>
+          </cell>
+          <cell r="Q368">
+            <v>2.9535714285714292</v>
+          </cell>
+          <cell r="R368">
+            <v>6.4571428571428573</v>
+          </cell>
+          <cell r="S368">
+            <v>5.4357142857142859</v>
+          </cell>
+          <cell r="T368">
+            <v>2.246428571428571</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="B369">
+            <v>4.7739130434782622</v>
+          </cell>
+          <cell r="C369">
+            <v>11.086956521739131</v>
+          </cell>
+          <cell r="D369">
+            <v>4.052173913043478</v>
+          </cell>
+          <cell r="E369">
+            <v>6.9391304347826086</v>
+          </cell>
+          <cell r="F369">
+            <v>3.1347826086956521</v>
+          </cell>
+          <cell r="G369">
+            <v>10.491304347826087</v>
+          </cell>
+          <cell r="H369">
+            <v>4.8826086956521735</v>
+          </cell>
+          <cell r="I369">
+            <v>3.9086956521739125</v>
+          </cell>
+          <cell r="J369">
+            <v>6.3608695652173921</v>
+          </cell>
+          <cell r="K369">
+            <v>3.5217391304347827</v>
+          </cell>
+          <cell r="L369">
+            <v>2.152173913043478</v>
+          </cell>
+          <cell r="M369">
+            <v>4.765217391304347</v>
+          </cell>
+          <cell r="N369">
+            <v>4.1391304347826088</v>
+          </cell>
+          <cell r="O369">
+            <v>5.1652173913043473</v>
+          </cell>
+          <cell r="P369">
+            <v>7.5086956521739134</v>
+          </cell>
+          <cell r="Q369">
+            <v>2.739130434782608</v>
+          </cell>
+          <cell r="R369">
+            <v>7.8173913043478267</v>
+          </cell>
+          <cell r="S369">
+            <v>4.4565217391304346</v>
+          </cell>
+          <cell r="T369">
+            <v>2.0695652173913044</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="B370">
+            <v>4.625</v>
+          </cell>
+          <cell r="C370">
+            <v>9.75</v>
+          </cell>
+          <cell r="D370">
+            <v>4.3</v>
+          </cell>
+          <cell r="E370">
+            <v>8.1999999999999993</v>
+          </cell>
+          <cell r="F370">
+            <v>3.95</v>
+          </cell>
+          <cell r="G370">
+            <v>11.324999999999999</v>
+          </cell>
+          <cell r="H370">
+            <v>5.4749999999999996</v>
+          </cell>
+          <cell r="I370">
+            <v>2.65</v>
+          </cell>
+          <cell r="J370">
+            <v>6.5500000000000007</v>
+          </cell>
+          <cell r="K370">
+            <v>2.2250000000000001</v>
+          </cell>
+          <cell r="L370">
+            <v>0.6</v>
+          </cell>
+          <cell r="M370">
+            <v>5.8249999999999993</v>
+          </cell>
+          <cell r="N370">
+            <v>4.1750000000000007</v>
+          </cell>
+          <cell r="O370">
+            <v>6</v>
+          </cell>
+          <cell r="P370">
+            <v>6.45</v>
+          </cell>
+          <cell r="Q370">
+            <v>2.35</v>
+          </cell>
+          <cell r="R370">
+            <v>9.8249999999999993</v>
+          </cell>
+          <cell r="S370">
+            <v>3.6749999999999998</v>
+          </cell>
+          <cell r="T370">
+            <v>1.9750000000000001</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="B373">
+            <v>8.4355555555555544</v>
+          </cell>
+          <cell r="C373">
+            <v>11.915555555555555</v>
+          </cell>
+          <cell r="D373">
+            <v>4.6855555555555544</v>
+          </cell>
+          <cell r="E373">
+            <v>9.4499999999999993</v>
+          </cell>
+          <cell r="F373">
+            <v>2.7922222222222226</v>
+          </cell>
+          <cell r="G373">
+            <v>6.2611111111111084</v>
+          </cell>
+          <cell r="H373">
+            <v>8.1577777777777776</v>
+          </cell>
+          <cell r="I373">
+            <v>5.2133333333333329</v>
+          </cell>
+          <cell r="J373">
+            <v>8.3366666666666642</v>
+          </cell>
+          <cell r="K373">
+            <v>3.3666666666666694</v>
+          </cell>
+          <cell r="L373">
+            <v>1.8355555555555561</v>
+          </cell>
+          <cell r="M373">
+            <v>4.1077777777777786</v>
+          </cell>
+          <cell r="N373">
+            <v>3.1977777777777781</v>
+          </cell>
+          <cell r="O373">
+            <v>6.8033333333333328</v>
+          </cell>
+          <cell r="P373">
+            <v>4.1911111111111117</v>
+          </cell>
+          <cell r="Q373">
+            <v>1.8077777777777788</v>
+          </cell>
+          <cell r="R373">
+            <v>3.4333333333333353</v>
+          </cell>
+          <cell r="S373">
+            <v>3.4055555555555541</v>
+          </cell>
+          <cell r="T373">
+            <v>2.5688888888888899</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="B374">
+            <v>11.451111111111107</v>
+          </cell>
+          <cell r="C374">
+            <v>12.145555555555559</v>
+          </cell>
+          <cell r="D374">
+            <v>2.5588888888888892</v>
+          </cell>
+          <cell r="E374">
+            <v>11.012222222222217</v>
+          </cell>
+          <cell r="F374">
+            <v>3.4666666666666668</v>
+          </cell>
+          <cell r="G374">
+            <v>11.003333333333334</v>
+          </cell>
+          <cell r="H374">
+            <v>9.8833333333333382</v>
+          </cell>
+          <cell r="I374">
+            <v>7.5588888888888919</v>
+          </cell>
+          <cell r="J374">
+            <v>2.8511111111111109</v>
+          </cell>
+          <cell r="K374">
+            <v>4.1777777777777807</v>
+          </cell>
+          <cell r="L374">
+            <v>1.1433333333333329</v>
+          </cell>
+          <cell r="M374">
+            <v>1.3777777777777771</v>
+          </cell>
+          <cell r="N374">
+            <v>2.342222222222222</v>
+          </cell>
+          <cell r="O374">
+            <v>6.6033333333333379</v>
+          </cell>
+          <cell r="P374">
+            <v>5.0488888888888903</v>
+          </cell>
+          <cell r="Q374">
+            <v>1.2244444444444449</v>
+          </cell>
+          <cell r="R374">
+            <v>1.5200000000000005</v>
+          </cell>
+          <cell r="S374">
+            <v>3.1300000000000017</v>
+          </cell>
+          <cell r="T374">
+            <v>1.5177777777777777</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="B375">
+            <v>8.6777777777777736</v>
+          </cell>
+          <cell r="C375">
+            <v>11.681111111111104</v>
+          </cell>
+          <cell r="D375">
+            <v>3.6177777777777775</v>
+          </cell>
+          <cell r="E375">
+            <v>8.2022222222222183</v>
+          </cell>
+          <cell r="F375">
+            <v>2.6744444444444451</v>
+          </cell>
+          <cell r="G375">
+            <v>8.6455555555555588</v>
+          </cell>
+          <cell r="H375">
+            <v>5.9422222222222221</v>
+          </cell>
+          <cell r="I375">
+            <v>4.8100000000000032</v>
+          </cell>
+          <cell r="J375">
+            <v>6.1888888888888891</v>
+          </cell>
+          <cell r="K375">
+            <v>3.9655555555555546</v>
+          </cell>
+          <cell r="L375">
+            <v>2.0588888888888897</v>
+          </cell>
+          <cell r="M375">
+            <v>3.1133333333333333</v>
+          </cell>
+          <cell r="N375">
+            <v>2.6277777777777773</v>
+          </cell>
+          <cell r="O375">
+            <v>7.7933333333333321</v>
+          </cell>
+          <cell r="P375">
+            <v>5.8566666666666674</v>
+          </cell>
+          <cell r="Q375">
+            <v>2.1777777777777785</v>
+          </cell>
+          <cell r="R375">
+            <v>4.8488888888888884</v>
+          </cell>
+          <cell r="S375">
+            <v>4.7655555555555535</v>
+          </cell>
+          <cell r="T375">
+            <v>2.3488888888888888</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="B376">
+            <v>5.6107526881720435</v>
+          </cell>
+          <cell r="C376">
+            <v>12.048387096774189</v>
+          </cell>
+          <cell r="D376">
+            <v>4.1989247311827951</v>
+          </cell>
+          <cell r="E376">
+            <v>8.8913978494623684</v>
+          </cell>
+          <cell r="F376">
+            <v>2.4365591397849462</v>
+          </cell>
+          <cell r="G376">
+            <v>8.1172043010752706</v>
+          </cell>
+          <cell r="H376">
+            <v>4.1333333333333346</v>
+          </cell>
+          <cell r="I376">
+            <v>4.1978494623655909</v>
+          </cell>
+          <cell r="J376">
+            <v>5.3602150537634392</v>
+          </cell>
+          <cell r="K376">
+            <v>4.5290322580645173</v>
+          </cell>
+          <cell r="L376">
+            <v>2.2397849462365591</v>
+          </cell>
+          <cell r="M376">
+            <v>5.2193548387096786</v>
+          </cell>
+          <cell r="N376">
+            <v>2.9279569892473107</v>
+          </cell>
+          <cell r="O376">
+            <v>6.2924731182795668</v>
+          </cell>
+          <cell r="P376">
+            <v>6.9365591397849427</v>
+          </cell>
+          <cell r="Q376">
+            <v>2.7096774193548399</v>
+          </cell>
+          <cell r="R376">
+            <v>5.8376344086021481</v>
+          </cell>
+          <cell r="S376">
+            <v>4.7913978494623652</v>
+          </cell>
+          <cell r="T376">
+            <v>3.5107526881720461</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="365">
+          <cell r="B365" t="str">
+            <v>PM2.5_Bias_ystd</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="B366">
+            <v>11.723245614035097</v>
+          </cell>
+          <cell r="C366">
+            <v>39.210964912280708</v>
+          </cell>
+          <cell r="D366">
+            <v>6.5679824561403475</v>
+          </cell>
+          <cell r="E366">
+            <v>5.6201754385964895</v>
+          </cell>
+          <cell r="F366">
+            <v>36.894298245614038</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="B367">
+            <v>12.416249999999998</v>
+          </cell>
+          <cell r="C367">
+            <v>35.808750000000003</v>
+          </cell>
+          <cell r="D367">
+            <v>7.4637500000000019</v>
+          </cell>
+          <cell r="E367">
+            <v>7.0699999999999976</v>
+          </cell>
+          <cell r="F367">
+            <v>37.246250000000003</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="B368">
+            <v>14.11071428571428</v>
+          </cell>
+          <cell r="C368">
+            <v>29.417857142857141</v>
+          </cell>
+          <cell r="D368">
+            <v>10.725000000000003</v>
+          </cell>
+          <cell r="E368">
+            <v>9.6857142857142851</v>
+          </cell>
+          <cell r="F368">
+            <v>36.046428571428585</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="B369">
+            <v>11.086956521739131</v>
+          </cell>
+          <cell r="C369">
+            <v>31.152173913043477</v>
+          </cell>
+          <cell r="D369">
+            <v>9.6913043478260867</v>
+          </cell>
+          <cell r="E369">
+            <v>11.978260869565213</v>
+          </cell>
+          <cell r="F369">
+            <v>36.117391304347827</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="B370">
+            <v>4.45</v>
+          </cell>
+          <cell r="C370">
+            <v>35.950000000000003</v>
+          </cell>
+          <cell r="D370">
+            <v>8.1999999999999993</v>
+          </cell>
+          <cell r="E370">
+            <v>12.100000000000001</v>
+          </cell>
+          <cell r="F370">
+            <v>39.300000000000004</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="B373">
+            <v>11.915555555555555</v>
+          </cell>
+          <cell r="C373">
+            <v>37.007777777777775</v>
+          </cell>
+          <cell r="D373">
+            <v>7.7566666666666668</v>
+          </cell>
+          <cell r="E373">
+            <v>6.6277777777777782</v>
+          </cell>
+          <cell r="F373">
+            <v>36.691111111111127</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="B374">
+            <v>12.145555555555559</v>
+          </cell>
+          <cell r="C374">
+            <v>45.91999999999998</v>
+          </cell>
+          <cell r="D374">
+            <v>3.7488888888888892</v>
+          </cell>
+          <cell r="E374">
+            <v>3.8533333333333353</v>
+          </cell>
+          <cell r="F374">
+            <v>34.355555555555561</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="B375">
+            <v>11.645555555555552</v>
+          </cell>
+          <cell r="C375">
+            <v>34.954444444444434</v>
+          </cell>
+          <cell r="D375">
+            <v>7.4288888888888902</v>
+          </cell>
+          <cell r="E375">
+            <v>7.60111111111111</v>
+          </cell>
+          <cell r="F375">
+            <v>38.397777777777769</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="B376">
+            <v>12.048387096774189</v>
+          </cell>
+          <cell r="C376">
+            <v>30.961290322580652</v>
+          </cell>
+          <cell r="D376">
+            <v>10.177419354838712</v>
+          </cell>
+          <cell r="E376">
+            <v>8.7602150537634405</v>
+          </cell>
+          <cell r="F376">
+            <v>38.051612903225816</v>
           </cell>
         </row>
       </sheetData>
@@ -49817,8 +53761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A76"/>
   <sheetViews>
-    <sheetView zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
-      <selection activeCell="AI77" sqref="AI77"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="39" zoomScaleNormal="41" workbookViewId="0">
+      <selection activeCell="BD90" sqref="BD90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -49844,8 +53788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742ECE85-A2BF-4AEE-8B0D-D457215A5263}">
   <dimension ref="A1:A73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="41" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="AN166" sqref="AN166"/>
+    <sheetView zoomScale="28" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="AY103" sqref="AY103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
